--- a/PythonResources/Data/Consumption/Sympheny/post_1692_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1692_hea.xlsx
@@ -367,7 +367,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>21.73584803914961</v>
+        <v>21.7358480391496</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -431,7 +431,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.3438573189509698</v>
+        <v>0.3438573189509697</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -695,7 +695,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>41.91560609142293</v>
+        <v>41.91560609142292</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -719,7 +719,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>36.62625998566297</v>
+        <v>36.62625998566296</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -767,7 +767,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>36.69776931909634</v>
+        <v>36.69776931909633</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -807,7 +807,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>2.340125352344657</v>
+        <v>2.340125352344656</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -831,7 +831,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.3357568354423703</v>
+        <v>0.3357568354423702</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -887,7 +887,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.7332315009164332</v>
+        <v>0.7332315009164331</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1263,7 +1263,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>60.35563584399478</v>
+        <v>60.35563584399477</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>48.40449195842378</v>
+        <v>48.40449195842377</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1279,7 +1279,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>39.39841894036064</v>
+        <v>39.39841894036063</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>39.77003301738322</v>
+        <v>39.77003301738321</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>49.22714236394617</v>
+        <v>49.22714236394616</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>35.30157889091369</v>
+        <v>35.30157889091368</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1495,7 +1495,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>38.00457308048728</v>
+        <v>38.00457308048727</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1503,7 +1503,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>41.98916692212693</v>
+        <v>41.98916692212692</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>44.93687542898274</v>
+        <v>44.93687542898273</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1623,7 +1623,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>0.9452478824152104</v>
+        <v>0.9452478824152102</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>35.29894125156574</v>
+        <v>35.29894125156573</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>55.9299700891698</v>
+        <v>55.92997008916979</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2063,7 +2063,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>45.92774861069675</v>
+        <v>45.92774861069674</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2095,7 +2095,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>56.24091846118949</v>
+        <v>56.24091846118948</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2183,7 +2183,7 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>0.5100315285823392</v>
+        <v>0.5100315285823391</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>34.56802208114434</v>
+        <v>34.56802208114433</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2295,7 +2295,7 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>34.77698173170988</v>
+        <v>34.77698173170987</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>38.21118816274353</v>
+        <v>38.21118816274352</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>39.73193378235725</v>
+        <v>39.73193378235724</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2327,7 +2327,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>5.147822101190396</v>
+        <v>5.147822101190395</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2335,7 +2335,7 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>5.478494154111993</v>
+        <v>5.478494154111992</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2343,7 +2343,7 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>4.604116710265869</v>
+        <v>4.604116710265868</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>2.15857077460434</v>
+        <v>2.158570774604339</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2399,7 +2399,7 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>0.6217619313615905</v>
+        <v>0.6217619313615904</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2407,7 +2407,7 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>1.592926085725624</v>
+        <v>1.592926085725623</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2423,7 +2423,7 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>16.8365794858479</v>
+        <v>16.83657948584789</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2863,7 +2863,7 @@
         <v>315</v>
       </c>
       <c r="B315">
-        <v>0.8034366682277585</v>
+        <v>0.8034366682277584</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2871,7 +2871,7 @@
         <v>316</v>
       </c>
       <c r="B316">
-        <v>1.375464444328519</v>
+        <v>1.375464444328518</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>5.737158652834496</v>
+        <v>5.737158652834495</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -3159,7 +3159,7 @@
         <v>352</v>
       </c>
       <c r="B352">
-        <v>4.170606029878007</v>
+        <v>4.170606029878006</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>379</v>
       </c>
       <c r="B379">
-        <v>37.01106225942532</v>
+        <v>37.01106225942531</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>384</v>
       </c>
       <c r="B384">
-        <v>44.33578672868832</v>
+        <v>44.33578672868831</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>385</v>
       </c>
       <c r="B385">
-        <v>49.27286144597734</v>
+        <v>49.27286144597733</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>389</v>
       </c>
       <c r="B389">
-        <v>67.44385198505807</v>
+        <v>67.44385198505806</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>400</v>
       </c>
       <c r="B400">
-        <v>22.66602620875685</v>
+        <v>22.66602620875684</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>403</v>
       </c>
       <c r="B403">
-        <v>70.13424411996922</v>
+        <v>70.13424411996921</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>407</v>
       </c>
       <c r="B407">
-        <v>75.81308163611011</v>
+        <v>75.8130816361101</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>408</v>
       </c>
       <c r="B408">
-        <v>81.56342848568437</v>
+        <v>81.56342848568435</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>412</v>
       </c>
       <c r="B412">
-        <v>93.40994601045328</v>
+        <v>93.40994601045324</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3791,7 +3791,7 @@
         <v>431</v>
       </c>
       <c r="B431">
-        <v>68.83740477389277</v>
+        <v>68.83740477389276</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3831,7 +3831,7 @@
         <v>436</v>
       </c>
       <c r="B436">
-        <v>86.26077109334841</v>
+        <v>86.2607710933484</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3839,7 +3839,7 @@
         <v>437</v>
       </c>
       <c r="B437">
-        <v>88.58423828785556</v>
+        <v>88.58423828785554</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>448</v>
       </c>
       <c r="B448">
-        <v>58.44188196153619</v>
+        <v>58.44188196153618</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -4015,7 +4015,7 @@
         <v>459</v>
       </c>
       <c r="B459">
-        <v>76.27935765862031</v>
+        <v>76.2793576586203</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4039,7 +4039,7 @@
         <v>462</v>
       </c>
       <c r="B462">
-        <v>73.42132888959488</v>
+        <v>73.42132888959486</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>472</v>
       </c>
       <c r="B472">
-        <v>10.46788205180207</v>
+        <v>10.46788205180206</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4143,7 +4143,7 @@
         <v>475</v>
       </c>
       <c r="B475">
-        <v>54.90597988008706</v>
+        <v>54.90597988008705</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>480</v>
       </c>
       <c r="B480">
-        <v>59.08898281490044</v>
+        <v>59.08898281490043</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4191,7 +4191,7 @@
         <v>481</v>
       </c>
       <c r="B481">
-        <v>63.88391807843871</v>
+        <v>63.8839180784387</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4231,7 +4231,7 @@
         <v>486</v>
       </c>
       <c r="B486">
-        <v>75.22752570086475</v>
+        <v>75.22752570086473</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>500</v>
       </c>
       <c r="B500">
-        <v>68.59093203037858</v>
+        <v>68.59093203037857</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>513</v>
       </c>
       <c r="B513">
-        <v>44.14441134044246</v>
+        <v>44.14441134044245</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4471,7 +4471,7 @@
         <v>516</v>
       </c>
       <c r="B516">
-        <v>57.48940108588682</v>
+        <v>57.48940108588681</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4479,7 +4479,7 @@
         <v>517</v>
       </c>
       <c r="B517">
-        <v>56.30480794761766</v>
+        <v>56.30480794761765</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4487,7 +4487,7 @@
         <v>518</v>
       </c>
       <c r="B518">
-        <v>56.34818246133954</v>
+        <v>56.34818246133953</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4575,7 +4575,7 @@
         <v>529</v>
       </c>
       <c r="B529">
-        <v>86.60249192442754</v>
+        <v>86.60249192442753</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4607,7 +4607,7 @@
         <v>533</v>
       </c>
       <c r="B533">
-        <v>98.19726142698634</v>
+        <v>98.19726142698632</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4663,7 +4663,7 @@
         <v>540</v>
       </c>
       <c r="B540">
-        <v>64.20834771823682</v>
+        <v>64.20834771823681</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4759,7 +4759,7 @@
         <v>552</v>
       </c>
       <c r="B552">
-        <v>95.4485481553816</v>
+        <v>95.44854815538156</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>561</v>
       </c>
       <c r="B561">
-        <v>42.57267136010167</v>
+        <v>42.57267136010166</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4903,7 +4903,7 @@
         <v>570</v>
       </c>
       <c r="B570">
-        <v>59.68274473922833</v>
+        <v>59.68274473922832</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4975,7 +4975,7 @@
         <v>579</v>
       </c>
       <c r="B579">
-        <v>77.97360133312155</v>
+        <v>77.97360133312154</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5103,7 +5103,7 @@
         <v>595</v>
       </c>
       <c r="B595">
-        <v>78.30272010953824</v>
+        <v>78.30272010953823</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5175,7 +5175,7 @@
         <v>604</v>
       </c>
       <c r="B604">
-        <v>64.22417355432454</v>
+        <v>64.22417355432452</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5319,7 +5319,7 @@
         <v>622</v>
       </c>
       <c r="B622">
-        <v>44.20830082687064</v>
+        <v>44.20830082687063</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5391,7 +5391,7 @@
         <v>631</v>
       </c>
       <c r="B631">
-        <v>91.41295995301486</v>
+        <v>91.41295995301483</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5495,7 +5495,7 @@
         <v>644</v>
       </c>
       <c r="B644">
-        <v>66.23376166642538</v>
+        <v>66.23376166642537</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5607,7 +5607,7 @@
         <v>658</v>
       </c>
       <c r="B658">
-        <v>35.66322855262179</v>
+        <v>35.66322855262178</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5655,7 +5655,7 @@
         <v>664</v>
       </c>
       <c r="B664">
-        <v>15.86504899268554</v>
+        <v>15.86504899268553</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5775,7 +5775,7 @@
         <v>679</v>
       </c>
       <c r="B679">
-        <v>87.35685677794184</v>
+        <v>87.35685677794183</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5895,7 +5895,7 @@
         <v>694</v>
       </c>
       <c r="B694">
-        <v>44.26193282694566</v>
+        <v>44.26193282694565</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5911,7 +5911,7 @@
         <v>696</v>
       </c>
       <c r="B696">
-        <v>53.12234953879411</v>
+        <v>53.1223495387941</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5919,7 +5919,7 @@
         <v>697</v>
       </c>
       <c r="B697">
-        <v>57.23941148990869</v>
+        <v>57.23941148990868</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5943,7 +5943,7 @@
         <v>700</v>
       </c>
       <c r="B700">
-        <v>59.68040017091904</v>
+        <v>59.68040017091903</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5959,7 +5959,7 @@
         <v>702</v>
       </c>
       <c r="B702">
-        <v>59.24724117577757</v>
+        <v>59.24724117577756</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -5999,7 +5999,7 @@
         <v>707</v>
       </c>
       <c r="B707">
-        <v>33.17945149996689</v>
+        <v>33.17945149996688</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6023,7 +6023,7 @@
         <v>710</v>
       </c>
       <c r="B710">
-        <v>25.57411151118565</v>
+        <v>25.57411151118564</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>715</v>
       </c>
       <c r="B715">
-        <v>58.70447361217676</v>
+        <v>58.70447361217675</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6079,7 +6079,7 @@
         <v>717</v>
       </c>
       <c r="B717">
-        <v>53.96082578040422</v>
+        <v>53.96082578040421</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6183,7 +6183,7 @@
         <v>730</v>
       </c>
       <c r="B730">
-        <v>23.6310798319648</v>
+        <v>23.63107983196479</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6271,7 +6271,7 @@
         <v>741</v>
       </c>
       <c r="B741">
-        <v>43.98908368995195</v>
+        <v>43.98908368995194</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6295,7 +6295,7 @@
         <v>744</v>
       </c>
       <c r="B744">
-        <v>61.20612799819</v>
+        <v>61.20612799818999</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6303,7 +6303,7 @@
         <v>745</v>
       </c>
       <c r="B745">
-        <v>66.88408630121491</v>
+        <v>66.88408630121489</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6359,7 +6359,7 @@
         <v>752</v>
       </c>
       <c r="B752">
-        <v>28.1984747410864</v>
+        <v>28.19847474108639</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6375,7 +6375,7 @@
         <v>754</v>
       </c>
       <c r="B754">
-        <v>23.47636763065547</v>
+        <v>23.47636763065546</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6479,7 +6479,7 @@
         <v>767</v>
       </c>
       <c r="B767">
-        <v>47.22488102781186</v>
+        <v>47.22488102781185</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6503,7 +6503,7 @@
         <v>770</v>
       </c>
       <c r="B770">
-        <v>61.52967842487213</v>
+        <v>61.52967842487212</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6551,7 +6551,7 @@
         <v>776</v>
       </c>
       <c r="B776">
-        <v>21.57940671871218</v>
+        <v>21.57940671871217</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6663,7 +6663,7 @@
         <v>790</v>
       </c>
       <c r="B790">
-        <v>74.67713829025874</v>
+        <v>74.67713829025872</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6695,7 +6695,7 @@
         <v>794</v>
       </c>
       <c r="B794">
-        <v>86.72704711585861</v>
+        <v>86.7270471158586</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6703,7 +6703,7 @@
         <v>795</v>
       </c>
       <c r="B795">
-        <v>89.30079697738255</v>
+        <v>89.30079697738253</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6711,7 +6711,7 @@
         <v>796</v>
       </c>
       <c r="B796">
-        <v>89.73600746979464</v>
+        <v>89.73600746979463</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6751,7 +6751,7 @@
         <v>801</v>
       </c>
       <c r="B801">
-        <v>41.01089579507536</v>
+        <v>41.01089579507535</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6783,7 +6783,7 @@
         <v>805</v>
       </c>
       <c r="B805">
-        <v>39.41629627371898</v>
+        <v>39.41629627371897</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6887,7 +6887,7 @@
         <v>818</v>
       </c>
       <c r="B818">
-        <v>95.15518404568158</v>
+        <v>95.15518404568157</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6951,7 +6951,7 @@
         <v>826</v>
       </c>
       <c r="B826">
-        <v>39.14608477607322</v>
+        <v>39.14608477607321</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -7039,7 +7039,7 @@
         <v>837</v>
       </c>
       <c r="B837">
-        <v>88.87496475820761</v>
+        <v>88.8749647582076</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -7215,7 +7215,7 @@
         <v>859</v>
       </c>
       <c r="B859">
-        <v>80.23874739093509</v>
+        <v>80.23874739093507</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7311,7 +7311,7 @@
         <v>871</v>
       </c>
       <c r="B871">
-        <v>105.3027687593307</v>
+        <v>105.3027687593306</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7423,7 +7423,7 @@
         <v>885</v>
       </c>
       <c r="B885">
-        <v>57.74378674744487</v>
+        <v>57.74378674744486</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7455,7 +7455,7 @@
         <v>889</v>
       </c>
       <c r="B889">
-        <v>76.50590157150553</v>
+        <v>76.50590157150552</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7471,7 +7471,7 @@
         <v>891</v>
       </c>
       <c r="B891">
-        <v>79.79826161982709</v>
+        <v>79.79826161982707</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7495,7 +7495,7 @@
         <v>894</v>
       </c>
       <c r="B894">
-        <v>83.10205143865643</v>
+        <v>83.10205143865642</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -7535,7 +7535,7 @@
         <v>899</v>
       </c>
       <c r="B899">
-        <v>31.15989897255156</v>
+        <v>31.15989897255155</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -7615,7 +7615,7 @@
         <v>909</v>
       </c>
       <c r="B909">
-        <v>49.35697283407315</v>
+        <v>49.35697283407314</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7823,7 +7823,7 @@
         <v>935</v>
       </c>
       <c r="B935">
-        <v>39.73222685339591</v>
+        <v>39.7322268533959</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -7967,7 +7967,7 @@
         <v>953</v>
       </c>
       <c r="B953">
-        <v>5.849932388511381</v>
+        <v>5.84993238851138</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -7991,7 +7991,7 @@
         <v>956</v>
       </c>
       <c r="B956">
-        <v>39.16396210943156</v>
+        <v>39.16396210943155</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8039,7 +8039,7 @@
         <v>962</v>
       </c>
       <c r="B962">
-        <v>39.15897990177432</v>
+        <v>39.15897990177431</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8063,7 +8063,7 @@
         <v>965</v>
       </c>
       <c r="B965">
-        <v>44.33549365764966</v>
+        <v>44.33549365764965</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8079,7 +8079,7 @@
         <v>967</v>
       </c>
       <c r="B967">
-        <v>45.10275363686506</v>
+        <v>45.10275363686505</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -8287,7 +8287,7 @@
         <v>993</v>
       </c>
       <c r="B993">
-        <v>0.848786480750215</v>
+        <v>0.8487864807502149</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8447,7 +8447,7 @@
         <v>1013</v>
       </c>
       <c r="B1013">
-        <v>53.43359098185246</v>
+        <v>53.43359098185245</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8455,7 +8455,7 @@
         <v>1014</v>
       </c>
       <c r="B1014">
-        <v>53.96082578040422</v>
+        <v>53.96082578040421</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
@@ -8519,7 +8519,7 @@
         <v>1022</v>
       </c>
       <c r="B1022">
-        <v>10.86736718460135</v>
+        <v>10.86736718460134</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -8575,7 +8575,7 @@
         <v>1029</v>
       </c>
       <c r="B1029">
-        <v>53.35944400907114</v>
+        <v>53.35944400907113</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -8583,7 +8583,7 @@
         <v>1030</v>
       </c>
       <c r="B1030">
-        <v>53.96317034871351</v>
+        <v>53.9631703487135</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -8727,7 +8727,7 @@
         <v>1048</v>
       </c>
       <c r="B1048">
-        <v>7.176958051569953</v>
+        <v>7.176958051569952</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8751,7 +8751,7 @@
         <v>1051</v>
       </c>
       <c r="B1051">
-        <v>45.74985449022931</v>
+        <v>45.7498544902293</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -8823,7 +8823,7 @@
         <v>1060</v>
       </c>
       <c r="B1060">
-        <v>52.44213165806113</v>
+        <v>52.44213165806112</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8983,7 +8983,7 @@
         <v>1080</v>
       </c>
       <c r="B1080">
-        <v>35.18435047544915</v>
+        <v>35.18435047544914</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
@@ -9119,7 +9119,7 @@
         <v>1097</v>
       </c>
       <c r="B1097">
-        <v>7.835664518065193</v>
+        <v>7.835664518065192</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
@@ -9223,7 +9223,7 @@
         <v>1110</v>
       </c>
       <c r="B1110">
-        <v>55.97363767393034</v>
+        <v>55.97363767393033</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -9447,7 +9447,7 @@
         <v>1138</v>
       </c>
       <c r="B1138">
-        <v>29.0246713061766</v>
+        <v>29.02467130617659</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -9551,7 +9551,7 @@
         <v>1151</v>
       </c>
       <c r="B1151">
-        <v>61.44556703677632</v>
+        <v>61.44556703677631</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
@@ -9575,7 +9575,7 @@
         <v>1154</v>
       </c>
       <c r="B1154">
-        <v>70.33822156287752</v>
+        <v>70.33822156287751</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
@@ -9599,7 +9599,7 @@
         <v>1157</v>
       </c>
       <c r="B1157">
-        <v>76.2104859645349</v>
+        <v>76.21048596453488</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
@@ -9687,7 +9687,7 @@
         <v>1168</v>
       </c>
       <c r="B1168">
-        <v>5.546926241639417</v>
+        <v>5.546926241639416</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
@@ -9735,7 +9735,7 @@
         <v>1174</v>
       </c>
       <c r="B1174">
-        <v>52.55701550521638</v>
+        <v>52.55701550521637</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
@@ -9751,7 +9751,7 @@
         <v>1176</v>
       </c>
       <c r="B1176">
-        <v>58.2560749230249</v>
+        <v>58.25607492302489</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
@@ -9759,7 +9759,7 @@
         <v>1177</v>
       </c>
       <c r="B1177">
-        <v>59.55056970079206</v>
+        <v>59.55056970079205</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
@@ -9775,7 +9775,7 @@
         <v>1179</v>
       </c>
       <c r="B1179">
-        <v>64.22622505159516</v>
+        <v>64.22622505159515</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
@@ -9807,7 +9807,7 @@
         <v>1183</v>
       </c>
       <c r="B1183">
-        <v>68.08362606245579</v>
+        <v>68.08362606245578</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
@@ -9895,7 +9895,7 @@
         <v>1194</v>
       </c>
       <c r="B1194">
-        <v>11.14393832378606</v>
+        <v>11.14393832378605</v>
       </c>
     </row>
     <row r="1195" spans="1:2">
@@ -9927,7 +9927,7 @@
         <v>1198</v>
       </c>
       <c r="B1198">
-        <v>38.62881439283594</v>
+        <v>38.62881439283593</v>
       </c>
     </row>
     <row r="1199" spans="1:2">
@@ -9951,7 +9951,7 @@
         <v>1201</v>
       </c>
       <c r="B1201">
-        <v>49.16120138024737</v>
+        <v>49.16120138024736</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
@@ -9975,7 +9975,7 @@
         <v>1204</v>
       </c>
       <c r="B1204">
-        <v>46.89371075412454</v>
+        <v>46.89371075412453</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
@@ -10063,7 +10063,7 @@
         <v>1215</v>
       </c>
       <c r="B1215">
-        <v>6.074395497022106</v>
+        <v>6.074395497022105</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
@@ -10095,7 +10095,7 @@
         <v>1219</v>
       </c>
       <c r="B1219">
-        <v>42.45808058398508</v>
+        <v>42.45808058398507</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
@@ -10111,7 +10111,7 @@
         <v>1221</v>
       </c>
       <c r="B1221">
-        <v>19.54713490821895</v>
+        <v>19.54713490821894</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
@@ -10247,7 +10247,7 @@
         <v>1238</v>
       </c>
       <c r="B1238">
-        <v>0.4346038353620688</v>
+        <v>0.4346038353620687</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
@@ -10431,7 +10431,7 @@
         <v>1261</v>
       </c>
       <c r="B1261">
-        <v>1.379863440618826</v>
+        <v>1.379863440618825</v>
       </c>
     </row>
     <row r="1262" spans="1:2">
@@ -10679,7 +10679,7 @@
         <v>1292</v>
       </c>
       <c r="B1292">
-        <v>22.04782215980461</v>
+        <v>22.0478221598046</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
@@ -10871,7 +10871,7 @@
         <v>1316</v>
       </c>
       <c r="B1316">
-        <v>1.590159495120661</v>
+        <v>1.59015949512066</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
@@ -10903,7 +10903,7 @@
         <v>1320</v>
       </c>
       <c r="B1320">
-        <v>9.922975069619026</v>
+        <v>9.922975069619024</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
@@ -10975,7 +10975,7 @@
         <v>1329</v>
       </c>
       <c r="B1329">
-        <v>0.5405050551823459</v>
+        <v>0.5405050551823458</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
@@ -11255,7 +11255,7 @@
         <v>1364</v>
       </c>
       <c r="B1364">
-        <v>8.166219342571324</v>
+        <v>8.166219342571322</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
@@ -11271,7 +11271,7 @@
         <v>1366</v>
       </c>
       <c r="B1366">
-        <v>7.248789763145849</v>
+        <v>7.248789763145848</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
@@ -11295,7 +11295,7 @@
         <v>1369</v>
       </c>
       <c r="B1369">
-        <v>19.82065810860158</v>
+        <v>19.82065810860157</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
@@ -11391,7 +11391,7 @@
         <v>1381</v>
       </c>
       <c r="B1381">
-        <v>0.5084284300008617</v>
+        <v>0.5084284300008616</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
@@ -11535,7 +11535,7 @@
         <v>1399</v>
       </c>
       <c r="B1399">
-        <v>7.098444320312579</v>
+        <v>7.098444320312578</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
@@ -11775,7 +11775,7 @@
         <v>1429</v>
       </c>
       <c r="B1429">
-        <v>4.75279164817877</v>
+        <v>4.752791648178769</v>
       </c>
     </row>
     <row r="1430" spans="1:2">
@@ -11799,7 +11799,7 @@
         <v>1432</v>
       </c>
       <c r="B1432">
-        <v>5.720981131500389</v>
+        <v>5.720981131500388</v>
       </c>
     </row>
     <row r="1433" spans="1:2">
@@ -11807,7 +11807,7 @@
         <v>1433</v>
       </c>
       <c r="B1433">
-        <v>6.965888289526052</v>
+        <v>6.965888289526051</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
@@ -11863,7 +11863,7 @@
         <v>1440</v>
       </c>
       <c r="B1440">
-        <v>50.49584689031114</v>
+        <v>50.49584689031113</v>
       </c>
     </row>
     <row r="1441" spans="1:2">
@@ -11879,7 +11879,7 @@
         <v>1442</v>
       </c>
       <c r="B1442">
-        <v>57.89676982962609</v>
+        <v>57.89676982962608</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
@@ -11919,7 +11919,7 @@
         <v>1447</v>
       </c>
       <c r="B1447">
-        <v>61.97573254571469</v>
+        <v>61.97573254571468</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
@@ -11967,7 +11967,7 @@
         <v>1453</v>
       </c>
       <c r="B1453">
-        <v>7.294362309657688</v>
+        <v>7.294362309657687</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
@@ -12095,7 +12095,7 @@
         <v>1469</v>
       </c>
       <c r="B1469">
-        <v>73.04649103114701</v>
+        <v>73.046491031147</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
@@ -12111,7 +12111,7 @@
         <v>1471</v>
       </c>
       <c r="B1471">
-        <v>74.28500924052986</v>
+        <v>74.28500924052985</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
@@ -12255,7 +12255,7 @@
         <v>1489</v>
       </c>
       <c r="B1489">
-        <v>57.5858214576064</v>
+        <v>57.58582145760639</v>
       </c>
     </row>
     <row r="1490" spans="1:2">
@@ -12279,7 +12279,7 @@
         <v>1492</v>
       </c>
       <c r="B1492">
-        <v>71.06210702837105</v>
+        <v>71.06210702837103</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
@@ -12303,7 +12303,7 @@
         <v>1495</v>
       </c>
       <c r="B1495">
-        <v>71.08467349834797</v>
+        <v>71.08467349834795</v>
       </c>
     </row>
     <row r="1496" spans="1:2">
@@ -12455,7 +12455,7 @@
         <v>1514</v>
       </c>
       <c r="B1514">
-        <v>40.4965561222247</v>
+        <v>40.49655612222469</v>
       </c>
     </row>
     <row r="1515" spans="1:2">
@@ -12543,7 +12543,7 @@
         <v>1525</v>
       </c>
       <c r="B1525">
-        <v>0.7247295100848676</v>
+        <v>0.7247295100848675</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
@@ -12615,7 +12615,7 @@
         <v>1534</v>
       </c>
       <c r="B1534">
-        <v>27.14031244889574</v>
+        <v>27.14031244889573</v>
       </c>
     </row>
     <row r="1535" spans="1:2">
@@ -12671,7 +12671,7 @@
         <v>1541</v>
       </c>
       <c r="B1541">
-        <v>54.51121319101023</v>
+        <v>54.51121319101022</v>
       </c>
     </row>
     <row r="1542" spans="1:2">
@@ -12863,7 +12863,7 @@
         <v>1565</v>
       </c>
       <c r="B1565">
-        <v>32.9807493357545</v>
+        <v>32.98074933575449</v>
       </c>
     </row>
     <row r="1566" spans="1:2">
@@ -12887,7 +12887,7 @@
         <v>1568</v>
       </c>
       <c r="B1568">
-        <v>0.7407487730580967</v>
+        <v>0.7407487730580966</v>
       </c>
     </row>
     <row r="1569" spans="1:2">
@@ -13255,7 +13255,7 @@
         <v>1614</v>
       </c>
       <c r="B1614">
-        <v>81.87672142601335</v>
+        <v>81.87672142601333</v>
       </c>
     </row>
     <row r="1615" spans="1:2">
@@ -13263,7 +13263,7 @@
         <v>1615</v>
       </c>
       <c r="B1615">
-        <v>78.74848115934215</v>
+        <v>78.74848115934213</v>
       </c>
     </row>
     <row r="1616" spans="1:2">
@@ -13271,7 +13271,7 @@
         <v>1616</v>
       </c>
       <c r="B1616">
-        <v>20.4255567323986</v>
+        <v>20.42555673239859</v>
       </c>
     </row>
     <row r="1617" spans="1:2">
@@ -13319,7 +13319,7 @@
         <v>1622</v>
       </c>
       <c r="B1622">
-        <v>4.625481588984281</v>
+        <v>4.62548158898428</v>
       </c>
     </row>
     <row r="1623" spans="1:2">
@@ -13383,7 +13383,7 @@
         <v>1630</v>
       </c>
       <c r="B1630">
-        <v>44.01458087031549</v>
+        <v>44.01458087031548</v>
       </c>
     </row>
     <row r="1631" spans="1:2">
@@ -13423,7 +13423,7 @@
         <v>1635</v>
       </c>
       <c r="B1635">
-        <v>70.64623922451059</v>
+        <v>70.64623922451058</v>
       </c>
     </row>
     <row r="1636" spans="1:2">
@@ -13431,7 +13431,7 @@
         <v>1636</v>
       </c>
       <c r="B1636">
-        <v>69.45461238131357</v>
+        <v>69.45461238131355</v>
       </c>
     </row>
     <row r="1637" spans="1:2">
@@ -13687,7 +13687,7 @@
         <v>1668</v>
       </c>
       <c r="B1668">
-        <v>0.9776849849742481</v>
+        <v>0.9776849849742478</v>
       </c>
     </row>
     <row r="1669" spans="1:2">
@@ -13759,7 +13759,7 @@
         <v>1677</v>
       </c>
       <c r="B1677">
-        <v>23.23657690682276</v>
+        <v>23.23657690682275</v>
       </c>
     </row>
     <row r="1678" spans="1:2">
@@ -13807,7 +13807,7 @@
         <v>1683</v>
       </c>
       <c r="B1683">
-        <v>48.69990756539441</v>
+        <v>48.6999075653944</v>
       </c>
     </row>
     <row r="1684" spans="1:2">
@@ -13847,7 +13847,7 @@
         <v>1688</v>
       </c>
       <c r="B1688">
-        <v>9.597255917250807</v>
+        <v>9.597255917250806</v>
       </c>
     </row>
     <row r="1689" spans="1:2">
@@ -13863,7 +13863,7 @@
         <v>1690</v>
       </c>
       <c r="B1690">
-        <v>6.544891742489029</v>
+        <v>6.544891742489028</v>
       </c>
     </row>
     <row r="1691" spans="1:2">
@@ -13871,7 +13871,7 @@
         <v>1691</v>
       </c>
       <c r="B1691">
-        <v>3.514244131692058</v>
+        <v>3.514244131692057</v>
       </c>
     </row>
     <row r="1692" spans="1:2">
@@ -13999,7 +13999,7 @@
         <v>1707</v>
       </c>
       <c r="B1707">
-        <v>41.764967577551</v>
+        <v>41.76496757755099</v>
       </c>
     </row>
     <row r="1708" spans="1:2">
@@ -14031,7 +14031,7 @@
         <v>1711</v>
       </c>
       <c r="B1711">
-        <v>6.455915375151445</v>
+        <v>6.455915375151444</v>
       </c>
     </row>
     <row r="1712" spans="1:2">
@@ -14039,7 +14039,7 @@
         <v>1712</v>
       </c>
       <c r="B1712">
-        <v>6.009978482724343</v>
+        <v>6.009978482724342</v>
       </c>
     </row>
     <row r="1713" spans="1:2">
@@ -14047,7 +14047,7 @@
         <v>1713</v>
       </c>
       <c r="B1713">
-        <v>6.561450256173395</v>
+        <v>6.561450256173394</v>
       </c>
     </row>
     <row r="1714" spans="1:2">
@@ -14063,7 +14063,7 @@
         <v>1715</v>
       </c>
       <c r="B1715">
-        <v>4.691422572683083</v>
+        <v>4.691422572683082</v>
       </c>
     </row>
     <row r="1716" spans="1:2">
@@ -14215,7 +14215,7 @@
         <v>1734</v>
       </c>
       <c r="B1734">
-        <v>45.69886012950224</v>
+        <v>45.69886012950223</v>
       </c>
     </row>
     <row r="1735" spans="1:2">
@@ -14255,7 +14255,7 @@
         <v>1739</v>
       </c>
       <c r="B1739">
-        <v>3.73683158555535</v>
+        <v>3.736831585555349</v>
       </c>
     </row>
     <row r="1740" spans="1:2">
@@ -14391,7 +14391,7 @@
         <v>1756</v>
       </c>
       <c r="B1756">
-        <v>52.85770639088292</v>
+        <v>52.85770639088291</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
@@ -14735,7 +14735,7 @@
         <v>1799</v>
       </c>
       <c r="B1799">
-        <v>30.29358098226862</v>
+        <v>30.29358098226861</v>
       </c>
     </row>
     <row r="1800" spans="1:2">
@@ -14783,7 +14783,7 @@
         <v>1805</v>
       </c>
       <c r="B1805">
-        <v>44.38648801837673</v>
+        <v>44.38648801837672</v>
       </c>
     </row>
     <row r="1806" spans="1:2">
@@ -14975,7 +14975,7 @@
         <v>1829</v>
       </c>
       <c r="B1829">
-        <v>58.66637437715078</v>
+        <v>58.66637437715077</v>
       </c>
     </row>
     <row r="1830" spans="1:2">
@@ -14991,7 +14991,7 @@
         <v>1831</v>
       </c>
       <c r="B1831">
-        <v>9.451453075516788</v>
+        <v>9.451453075516786</v>
       </c>
     </row>
     <row r="1832" spans="1:2">
@@ -15159,7 +15159,7 @@
         <v>1852</v>
       </c>
       <c r="B1852">
-        <v>39.9127586132113</v>
+        <v>39.91275861321129</v>
       </c>
     </row>
     <row r="1853" spans="1:2">
@@ -15175,7 +15175,7 @@
         <v>1854</v>
       </c>
       <c r="B1854">
-        <v>39.06959323498261</v>
+        <v>39.0695932349826</v>
       </c>
     </row>
     <row r="1855" spans="1:2">
@@ -15223,7 +15223,7 @@
         <v>1860</v>
       </c>
       <c r="B1860">
-        <v>0.5880235933908965</v>
+        <v>0.5880235933908964</v>
       </c>
     </row>
     <row r="1861" spans="1:2">
@@ -15295,7 +15295,7 @@
         <v>1869</v>
       </c>
       <c r="B1869">
-        <v>3.898753334415743</v>
+        <v>3.898753334415742</v>
       </c>
     </row>
     <row r="1870" spans="1:2">
@@ -15391,7 +15391,7 @@
         <v>1881</v>
       </c>
       <c r="B1881">
-        <v>2.742104519682945</v>
+        <v>2.742104519682944</v>
       </c>
     </row>
     <row r="1882" spans="1:2">
@@ -15415,7 +15415,7 @@
         <v>1884</v>
       </c>
       <c r="B1884">
-        <v>3.326825202468128</v>
+        <v>3.326825202468127</v>
       </c>
     </row>
     <row r="1885" spans="1:2">
@@ -15431,7 +15431,7 @@
         <v>1886</v>
       </c>
       <c r="B1886">
-        <v>2.049050127456595</v>
+        <v>2.049050127456594</v>
       </c>
     </row>
     <row r="1887" spans="1:2">
@@ -15455,7 +15455,7 @@
         <v>1889</v>
       </c>
       <c r="B1889">
-        <v>0.9881358982129116</v>
+        <v>0.9881358982129114</v>
       </c>
     </row>
     <row r="1890" spans="1:2">
@@ -15463,7 +15463,7 @@
         <v>1890</v>
       </c>
       <c r="B1890">
-        <v>17.70157865645686</v>
+        <v>17.70157865645685</v>
       </c>
     </row>
     <row r="1891" spans="1:2">
@@ -15703,7 +15703,7 @@
         <v>1920</v>
       </c>
       <c r="B1920">
-        <v>29.71154189948719</v>
+        <v>29.71154189948718</v>
       </c>
     </row>
     <row r="1921" spans="1:2">
@@ -15775,7 +15775,7 @@
         <v>1929</v>
       </c>
       <c r="B1929">
-        <v>4.447763311140041</v>
+        <v>4.44776331114004</v>
       </c>
     </row>
     <row r="1930" spans="1:2">
@@ -15959,7 +15959,7 @@
         <v>1952</v>
       </c>
       <c r="B1952">
-        <v>4.016245513815076</v>
+        <v>4.016245513815075</v>
       </c>
     </row>
     <row r="1953" spans="1:2">
@@ -16087,7 +16087,7 @@
         <v>1968</v>
       </c>
       <c r="B1968">
-        <v>43.32439857426802</v>
+        <v>43.32439857426801</v>
       </c>
     </row>
     <row r="1969" spans="1:2">
@@ -16167,7 +16167,7 @@
         <v>1978</v>
       </c>
       <c r="B1978">
-        <v>9.586676052755132</v>
+        <v>9.586676052755131</v>
       </c>
     </row>
     <row r="1979" spans="1:2">
@@ -16175,7 +16175,7 @@
         <v>1979</v>
       </c>
       <c r="B1979">
-        <v>5.374395321179483</v>
+        <v>5.374395321179482</v>
       </c>
     </row>
     <row r="1980" spans="1:2">
@@ -16303,7 +16303,7 @@
         <v>1995</v>
       </c>
       <c r="B1995">
-        <v>42.70748403788589</v>
+        <v>42.70748403788588</v>
       </c>
     </row>
     <row r="1996" spans="1:2">
@@ -16431,7 +16431,7 @@
         <v>2011</v>
       </c>
       <c r="B2011">
-        <v>42.38393361120376</v>
+        <v>42.38393361120375</v>
       </c>
     </row>
     <row r="2012" spans="1:2">
@@ -16543,7 +16543,7 @@
         <v>2025</v>
       </c>
       <c r="B2025">
-        <v>8.159742472616909</v>
+        <v>8.159742472616907</v>
       </c>
     </row>
     <row r="2026" spans="1:2">
@@ -16575,7 +16575,7 @@
         <v>2029</v>
       </c>
       <c r="B2029">
-        <v>3.905552582512686</v>
+        <v>3.905552582512685</v>
       </c>
     </row>
     <row r="2030" spans="1:2">
@@ -16687,7 +16687,7 @@
         <v>2043</v>
       </c>
       <c r="B2043">
-        <v>40.35353745535796</v>
+        <v>40.35353745535795</v>
       </c>
     </row>
     <row r="2044" spans="1:2">
@@ -16703,7 +16703,7 @@
         <v>2045</v>
       </c>
       <c r="B2045">
-        <v>39.54114453618871</v>
+        <v>39.5411445361887</v>
       </c>
     </row>
     <row r="2046" spans="1:2">
@@ -16711,7 +16711,7 @@
         <v>2046</v>
       </c>
       <c r="B2046">
-        <v>40.16509277749872</v>
+        <v>40.16509277749871</v>
       </c>
     </row>
     <row r="2047" spans="1:2">
@@ -16751,7 +16751,7 @@
         <v>2051</v>
       </c>
       <c r="B2051">
-        <v>5.756091041932018</v>
+        <v>5.756091041932017</v>
       </c>
     </row>
     <row r="2052" spans="1:2">
@@ -16767,7 +16767,7 @@
         <v>2053</v>
       </c>
       <c r="B2053">
-        <v>7.112042816506465</v>
+        <v>7.112042816506464</v>
       </c>
     </row>
     <row r="2054" spans="1:2">
@@ -16807,7 +16807,7 @@
         <v>2058</v>
       </c>
       <c r="B2058">
-        <v>52.60800986594345</v>
+        <v>52.60800986594344</v>
       </c>
     </row>
     <row r="2059" spans="1:2">
@@ -16815,7 +16815,7 @@
         <v>2059</v>
       </c>
       <c r="B2059">
-        <v>42.61077059512764</v>
+        <v>42.61077059512763</v>
       </c>
     </row>
     <row r="2060" spans="1:2">
@@ -16863,7 +16863,7 @@
         <v>2065</v>
       </c>
       <c r="B2065">
-        <v>41.25062790470034</v>
+        <v>41.25062790470033</v>
       </c>
     </row>
     <row r="2066" spans="1:2">
@@ -17079,7 +17079,7 @@
         <v>2092</v>
       </c>
       <c r="B2092">
-        <v>35.14625124042318</v>
+        <v>35.14625124042317</v>
       </c>
     </row>
     <row r="2093" spans="1:2">
@@ -17223,7 +17223,7 @@
         <v>2110</v>
       </c>
       <c r="B2110">
-        <v>9.197360484997402</v>
+        <v>9.1973604849974</v>
       </c>
     </row>
     <row r="2111" spans="1:2">
@@ -17263,7 +17263,7 @@
         <v>2115</v>
       </c>
       <c r="B2115">
-        <v>33.69144660450826</v>
+        <v>33.69144660450825</v>
       </c>
     </row>
     <row r="2116" spans="1:2">
@@ -17271,7 +17271,7 @@
         <v>2116</v>
       </c>
       <c r="B2116">
-        <v>36.12452236747475</v>
+        <v>36.12452236747474</v>
       </c>
     </row>
     <row r="2117" spans="1:2">
@@ -17559,7 +17559,7 @@
         <v>2152</v>
       </c>
       <c r="B2152">
-        <v>0.864284077274627</v>
+        <v>0.8642840772746269</v>
       </c>
     </row>
     <row r="2153" spans="1:2">
@@ -17567,7 +17567,7 @@
         <v>2153</v>
       </c>
       <c r="B2153">
-        <v>0.8802798945647632</v>
+        <v>0.8802798945647631</v>
       </c>
     </row>
     <row r="2154" spans="1:2">
@@ -17639,7 +17639,7 @@
         <v>2162</v>
       </c>
       <c r="B2162">
-        <v>35.5744280279074</v>
+        <v>35.57442802790739</v>
       </c>
     </row>
     <row r="2163" spans="1:2">
@@ -17671,7 +17671,7 @@
         <v>2166</v>
       </c>
       <c r="B2166">
-        <v>45.35713929842311</v>
+        <v>45.3571392984231</v>
       </c>
     </row>
     <row r="2167" spans="1:2">
@@ -17767,7 +17767,7 @@
         <v>2178</v>
       </c>
       <c r="B2178">
-        <v>0.4779402498489219</v>
+        <v>0.4779402498489218</v>
       </c>
     </row>
     <row r="2179" spans="1:2">
@@ -18087,7 +18087,7 @@
         <v>2218</v>
       </c>
       <c r="B2218">
-        <v>0.555759402744669</v>
+        <v>0.5557594027446688</v>
       </c>
     </row>
     <row r="2219" spans="1:2">
@@ -18199,7 +18199,7 @@
         <v>2232</v>
       </c>
       <c r="B2232">
-        <v>3.70119414725413</v>
+        <v>3.701194147254129</v>
       </c>
     </row>
     <row r="2233" spans="1:2">
@@ -18255,7 +18255,7 @@
         <v>2239</v>
       </c>
       <c r="B2239">
-        <v>0.2887968906335083</v>
+        <v>0.2887968906335082</v>
       </c>
     </row>
     <row r="2240" spans="1:2">
@@ -18399,7 +18399,7 @@
         <v>2257</v>
       </c>
       <c r="B2257">
-        <v>1.504811347241704</v>
+        <v>1.504811347241703</v>
       </c>
     </row>
     <row r="2258" spans="1:2">
@@ -19023,7 +19023,7 @@
         <v>2335</v>
       </c>
       <c r="B2335">
-        <v>0.2712574681827427</v>
+        <v>0.2712574681827426</v>
       </c>
     </row>
     <row r="2336" spans="1:2">
@@ -19151,7 +19151,7 @@
         <v>2351</v>
       </c>
       <c r="B2351">
-        <v>5.37964129277152</v>
+        <v>5.379641292771519</v>
       </c>
     </row>
     <row r="2352" spans="1:2">
@@ -19239,7 +19239,7 @@
         <v>2362</v>
       </c>
       <c r="B2362">
-        <v>3.503781495611848</v>
+        <v>3.503781495611847</v>
       </c>
     </row>
     <row r="2363" spans="1:2">
@@ -19279,7 +19279,7 @@
         <v>2367</v>
       </c>
       <c r="B2367">
-        <v>0.4681106472122204</v>
+        <v>0.4681106472122203</v>
       </c>
     </row>
     <row r="2368" spans="1:2">
@@ -19391,7 +19391,7 @@
         <v>2381</v>
       </c>
       <c r="B2381">
-        <v>56.29718810061247</v>
+        <v>56.29718810061246</v>
       </c>
     </row>
     <row r="2382" spans="1:2">
@@ -19423,7 +19423,7 @@
         <v>2385</v>
       </c>
       <c r="B2385">
-        <v>8.27459701266829</v>
+        <v>8.274597012668288</v>
       </c>
     </row>
     <row r="2386" spans="1:2">
@@ -19463,7 +19463,7 @@
         <v>2390</v>
       </c>
       <c r="B2390">
-        <v>0.7400366104341497</v>
+        <v>0.7400366104341496</v>
       </c>
     </row>
     <row r="2391" spans="1:2">
@@ -19503,7 +19503,7 @@
         <v>2395</v>
       </c>
       <c r="B2395">
-        <v>6.574579838705424</v>
+        <v>6.574579838705423</v>
       </c>
     </row>
     <row r="2396" spans="1:2">
@@ -19655,7 +19655,7 @@
         <v>2414</v>
       </c>
       <c r="B2414">
-        <v>0.6937079406425642</v>
+        <v>0.6937079406425641</v>
       </c>
     </row>
     <row r="2415" spans="1:2">
@@ -19775,7 +19775,7 @@
         <v>2429</v>
       </c>
       <c r="B2429">
-        <v>33.52322382831665</v>
+        <v>33.52322382831664</v>
       </c>
     </row>
     <row r="2430" spans="1:2">
@@ -19823,7 +19823,7 @@
         <v>2435</v>
       </c>
       <c r="B2435">
-        <v>0.4425108919851519</v>
+        <v>0.4425108919851518</v>
       </c>
     </row>
     <row r="2436" spans="1:2">
@@ -19951,7 +19951,7 @@
         <v>2451</v>
       </c>
       <c r="B2451">
-        <v>5.941282631262123</v>
+        <v>5.941282631262122</v>
       </c>
     </row>
     <row r="2452" spans="1:2">
@@ -20183,7 +20183,7 @@
         <v>2480</v>
       </c>
       <c r="B2480">
-        <v>1.195847066153754</v>
+        <v>1.195847066153753</v>
       </c>
     </row>
     <row r="2481" spans="1:2">
@@ -20295,7 +20295,7 @@
         <v>2494</v>
       </c>
       <c r="B2494">
-        <v>8.238900960159338</v>
+        <v>8.238900960159336</v>
       </c>
     </row>
     <row r="2495" spans="1:2">
@@ -20311,7 +20311,7 @@
         <v>2496</v>
       </c>
       <c r="B2496">
-        <v>21.10190607542125</v>
+        <v>21.10190607542124</v>
       </c>
     </row>
     <row r="2497" spans="1:2">
@@ -20359,7 +20359,7 @@
         <v>2502</v>
       </c>
       <c r="B2502">
-        <v>35.32971371062518</v>
+        <v>35.32971371062517</v>
       </c>
     </row>
     <row r="2503" spans="1:2">
@@ -20695,7 +20695,7 @@
         <v>2544</v>
       </c>
       <c r="B2544">
-        <v>5.0026054015337</v>
+        <v>5.002605401533699</v>
       </c>
     </row>
     <row r="2545" spans="1:2">
@@ -20703,7 +20703,7 @@
         <v>2545</v>
       </c>
       <c r="B2545">
-        <v>8.371281148322668</v>
+        <v>8.371281148322666</v>
       </c>
     </row>
     <row r="2546" spans="1:2">
@@ -20879,7 +20879,7 @@
         <v>2567</v>
       </c>
       <c r="B2567">
-        <v>25.08954785586298</v>
+        <v>25.08954785586297</v>
       </c>
     </row>
     <row r="2568" spans="1:2">
@@ -20911,7 +20911,7 @@
         <v>2571</v>
       </c>
       <c r="B2571">
-        <v>38.59569736546721</v>
+        <v>38.5956973654672</v>
       </c>
     </row>
     <row r="2572" spans="1:2">
@@ -20935,7 +20935,7 @@
         <v>2574</v>
       </c>
       <c r="B2574">
-        <v>38.39963284060277</v>
+        <v>38.39963284060276</v>
       </c>
     </row>
     <row r="2575" spans="1:2">
@@ -20951,7 +20951,7 @@
         <v>2576</v>
       </c>
       <c r="B2576">
-        <v>2.544041250334834</v>
+        <v>2.544041250334833</v>
       </c>
     </row>
     <row r="2577" spans="1:2">
@@ -21015,7 +21015,7 @@
         <v>2584</v>
       </c>
       <c r="B2584">
-        <v>0.8431096947313448</v>
+        <v>0.8431096947313447</v>
       </c>
     </row>
     <row r="2585" spans="1:2">
@@ -21079,7 +21079,7 @@
         <v>2592</v>
       </c>
       <c r="B2592">
-        <v>28.24536610727221</v>
+        <v>28.2453661072722</v>
       </c>
     </row>
     <row r="2593" spans="1:2">
@@ -21319,7 +21319,7 @@
         <v>2622</v>
       </c>
       <c r="B2622">
-        <v>30.48085337597322</v>
+        <v>30.48085337597321</v>
       </c>
     </row>
     <row r="2623" spans="1:2">
@@ -21343,7 +21343,7 @@
         <v>2625</v>
       </c>
       <c r="B2625">
-        <v>0.9586148524885542</v>
+        <v>0.958614852488554</v>
       </c>
     </row>
     <row r="2626" spans="1:2">
@@ -21359,7 +21359,7 @@
         <v>2627</v>
       </c>
       <c r="B2627">
-        <v>0.4421240382141189</v>
+        <v>0.4421240382141188</v>
       </c>
     </row>
     <row r="2628" spans="1:2">
@@ -21639,7 +21639,7 @@
         <v>2662</v>
       </c>
       <c r="B2662">
-        <v>15.00784551170497</v>
+        <v>15.00784551170496</v>
       </c>
     </row>
     <row r="2663" spans="1:2">
@@ -21703,7 +21703,7 @@
         <v>2670</v>
       </c>
       <c r="B2670">
-        <v>28.02096161296922</v>
+        <v>28.02096161296921</v>
       </c>
     </row>
     <row r="2671" spans="1:2">
@@ -21887,7 +21887,7 @@
         <v>2693</v>
       </c>
       <c r="B2693">
-        <v>21.71512791671625</v>
+        <v>21.71512791671624</v>
       </c>
     </row>
     <row r="2694" spans="1:2">
@@ -22087,7 +22087,7 @@
         <v>2718</v>
       </c>
       <c r="B2718">
-        <v>30.62094133245334</v>
+        <v>30.62094133245333</v>
       </c>
     </row>
     <row r="2719" spans="1:2">
@@ -22215,7 +22215,7 @@
         <v>2734</v>
       </c>
       <c r="B2734">
-        <v>2.058278934464041</v>
+        <v>2.05827893446404</v>
       </c>
     </row>
     <row r="2735" spans="1:2">
@@ -22231,7 +22231,7 @@
         <v>2736</v>
       </c>
       <c r="B2736">
-        <v>9.30957738570083</v>
+        <v>9.309577385700829</v>
       </c>
     </row>
     <row r="2737" spans="1:2">
@@ -22295,7 +22295,7 @@
         <v>2744</v>
       </c>
       <c r="B2744">
-        <v>0.6747374523100154</v>
+        <v>0.6747374523100153</v>
       </c>
     </row>
     <row r="2745" spans="1:2">
@@ -22407,7 +22407,7 @@
         <v>2758</v>
       </c>
       <c r="B2758">
-        <v>0.7464079748146473</v>
+        <v>0.7464079748146472</v>
       </c>
     </row>
     <row r="2759" spans="1:2">
@@ -22503,7 +22503,7 @@
         <v>2770</v>
       </c>
       <c r="B2770">
-        <v>0.1566092501425791</v>
+        <v>0.156609250142579</v>
       </c>
     </row>
     <row r="2771" spans="1:2">
@@ -22599,7 +22599,7 @@
         <v>2782</v>
       </c>
       <c r="B2782">
-        <v>0.366450165321373</v>
+        <v>0.3664501653213729</v>
       </c>
     </row>
     <row r="2783" spans="1:2">
@@ -22607,7 +22607,7 @@
         <v>2783</v>
       </c>
       <c r="B2783">
-        <v>3.666172158134099</v>
+        <v>3.666172158134098</v>
       </c>
     </row>
     <row r="2784" spans="1:2">
@@ -22663,7 +22663,7 @@
         <v>2790</v>
       </c>
       <c r="B2790">
-        <v>16.12078278102143</v>
+        <v>16.12078278102142</v>
       </c>
     </row>
     <row r="2791" spans="1:2">
@@ -22671,7 +22671,7 @@
         <v>2791</v>
       </c>
       <c r="B2791">
-        <v>0.351043420818946</v>
+        <v>0.3510434208189459</v>
       </c>
     </row>
     <row r="2792" spans="1:2">
@@ -22679,7 +22679,7 @@
         <v>2792</v>
       </c>
       <c r="B2792">
-        <v>0.4918259556606965</v>
+        <v>0.4918259556606964</v>
       </c>
     </row>
     <row r="2793" spans="1:2">
@@ -22871,7 +22871,7 @@
         <v>2816</v>
       </c>
       <c r="B2816">
-        <v>0.4647373995572283</v>
+        <v>0.4647373995572282</v>
       </c>
     </row>
     <row r="2817" spans="1:2">
@@ -22879,7 +22879,7 @@
         <v>2817</v>
       </c>
       <c r="B2817">
-        <v>0.5098908544837818</v>
+        <v>0.5098908544837817</v>
       </c>
     </row>
     <row r="2818" spans="1:2">
@@ -22887,7 +22887,7 @@
         <v>2818</v>
       </c>
       <c r="B2818">
-        <v>0.4802643031855064</v>
+        <v>0.4802643031855063</v>
       </c>
     </row>
     <row r="2819" spans="1:2">
@@ -23175,7 +23175,7 @@
         <v>2854</v>
       </c>
       <c r="B2854">
-        <v>0.6658193006035505</v>
+        <v>0.6658193006035504</v>
       </c>
     </row>
     <row r="2855" spans="1:2">
@@ -24143,7 +24143,7 @@
         <v>2975</v>
       </c>
       <c r="B2975">
-        <v>5.300834490475485</v>
+        <v>5.300834490475484</v>
       </c>
     </row>
     <row r="2976" spans="1:2">
@@ -24151,7 +24151,7 @@
         <v>2976</v>
       </c>
       <c r="B2976">
-        <v>8.974421345887716</v>
+        <v>8.974421345887714</v>
       </c>
     </row>
     <row r="2977" spans="1:2">
@@ -24343,7 +24343,7 @@
         <v>3000</v>
       </c>
       <c r="B3000">
-        <v>1.459235870019478</v>
+        <v>1.459235870019477</v>
       </c>
     </row>
     <row r="3001" spans="1:2">
@@ -24959,7 +24959,7 @@
         <v>3077</v>
       </c>
       <c r="B3077">
-        <v>2.481957081504815</v>
+        <v>2.481957081504814</v>
       </c>
     </row>
     <row r="3078" spans="1:2">
@@ -25911,7 +25911,7 @@
         <v>3196</v>
       </c>
       <c r="B3196">
-        <v>6.121990233700708</v>
+        <v>6.121990233700707</v>
       </c>
     </row>
     <row r="3197" spans="1:2">
@@ -25927,7 +25927,7 @@
         <v>3198</v>
       </c>
       <c r="B3198">
-        <v>7.480433112103776</v>
+        <v>7.480433112103775</v>
       </c>
     </row>
     <row r="3199" spans="1:2">
@@ -26087,7 +26087,7 @@
         <v>3218</v>
       </c>
       <c r="B3218">
-        <v>8.757255706239659</v>
+        <v>8.757255706239658</v>
       </c>
     </row>
     <row r="3219" spans="1:2">
@@ -26719,7 +26719,7 @@
         <v>3297</v>
       </c>
       <c r="B3297">
-        <v>0.06599783948030299</v>
+        <v>0.0659978394803029</v>
       </c>
     </row>
     <row r="3298" spans="1:2">
@@ -26751,7 +26751,7 @@
         <v>3301</v>
       </c>
       <c r="B3301">
-        <v>0.1876777109510683</v>
+        <v>0.1876777109510682</v>
       </c>
     </row>
     <row r="3302" spans="1:2">
@@ -26895,7 +26895,7 @@
         <v>3319</v>
       </c>
       <c r="B3319">
-        <v>0.5552494591373982</v>
+        <v>0.5552494591373981</v>
       </c>
     </row>
     <row r="3320" spans="1:2">
@@ -27023,7 +27023,7 @@
         <v>3335</v>
       </c>
       <c r="B3335">
-        <v>5.039327202677967</v>
+        <v>5.039327202677966</v>
       </c>
     </row>
     <row r="3336" spans="1:2">
@@ -27071,7 +27071,7 @@
         <v>3341</v>
       </c>
       <c r="B3341">
-        <v>26.40244749485807</v>
+        <v>26.40244749485806</v>
       </c>
     </row>
     <row r="3342" spans="1:2">
@@ -27095,7 +27095,7 @@
         <v>3344</v>
       </c>
       <c r="B3344">
-        <v>0.4426222589798432</v>
+        <v>0.4426222589798431</v>
       </c>
     </row>
     <row r="3345" spans="1:2">
@@ -27287,7 +27287,7 @@
         <v>3368</v>
       </c>
       <c r="B3368">
-        <v>0.8556560658964369</v>
+        <v>0.8556560658964368</v>
       </c>
     </row>
     <row r="3369" spans="1:2">
@@ -27295,7 +27295,7 @@
         <v>3369</v>
       </c>
       <c r="B3369">
-        <v>0.8287550752577121</v>
+        <v>0.828755075257712</v>
       </c>
     </row>
     <row r="3370" spans="1:2">
@@ -27407,7 +27407,7 @@
         <v>3383</v>
       </c>
       <c r="B3383">
-        <v>6.344284616525338</v>
+        <v>6.344284616525337</v>
       </c>
     </row>
     <row r="3384" spans="1:2">
@@ -27423,7 +27423,7 @@
         <v>3385</v>
       </c>
       <c r="B3385">
-        <v>18.16785467896706</v>
+        <v>18.16785467896705</v>
       </c>
     </row>
     <row r="3386" spans="1:2">
@@ -27671,7 +27671,7 @@
         <v>3416</v>
       </c>
       <c r="B3416">
-        <v>0.3527461635535684</v>
+        <v>0.3527461635535683</v>
       </c>
     </row>
     <row r="3417" spans="1:2">
@@ -27807,7 +27807,7 @@
         <v>3433</v>
       </c>
       <c r="B3433">
-        <v>0.4923358992679672</v>
+        <v>0.4923358992679671</v>
       </c>
     </row>
     <row r="3434" spans="1:2">
@@ -27839,7 +27839,7 @@
         <v>3437</v>
       </c>
       <c r="B3437">
-        <v>6.417083462528817</v>
+        <v>6.417083462528816</v>
       </c>
     </row>
     <row r="3438" spans="1:2">
@@ -29927,7 +29927,7 @@
         <v>3698</v>
       </c>
       <c r="B3698">
-        <v>2.946272458766371</v>
+        <v>2.94627245876637</v>
       </c>
     </row>
     <row r="3699" spans="1:2">
@@ -30911,7 +30911,7 @@
         <v>3821</v>
       </c>
       <c r="B3821">
-        <v>4.162751726041883</v>
+        <v>4.162751726041882</v>
       </c>
     </row>
     <row r="3822" spans="1:2">
@@ -31095,7 +31095,7 @@
         <v>3844</v>
       </c>
       <c r="B3844">
-        <v>3.673498934100633</v>
+        <v>3.673498934100632</v>
       </c>
     </row>
     <row r="3845" spans="1:2">
@@ -45295,7 +45295,7 @@
         <v>5619</v>
       </c>
       <c r="B5619">
-        <v>0.1156871548722181</v>
+        <v>0.115687154872218</v>
       </c>
     </row>
     <row r="5620" spans="1:2">
@@ -45311,7 +45311,7 @@
         <v>5621</v>
       </c>
       <c r="B5621">
-        <v>1.701980749921897</v>
+        <v>1.701980749921896</v>
       </c>
     </row>
     <row r="5622" spans="1:2">
@@ -45679,7 +45679,7 @@
         <v>5667</v>
       </c>
       <c r="B5667">
-        <v>0.3007289849015663</v>
+        <v>0.3007289849015662</v>
       </c>
     </row>
     <row r="5668" spans="1:2">
@@ -46639,7 +46639,7 @@
         <v>5787</v>
       </c>
       <c r="B5787">
-        <v>0.6274064795662081</v>
+        <v>0.627406479566208</v>
       </c>
     </row>
     <row r="5788" spans="1:2">
@@ -47591,7 +47591,7 @@
         <v>5906</v>
       </c>
       <c r="B5906">
-        <v>1.990500395352832</v>
+        <v>1.990500395352831</v>
       </c>
     </row>
     <row r="5907" spans="1:2">
@@ -47607,7 +47607,7 @@
         <v>5908</v>
       </c>
       <c r="B5908">
-        <v>5.482128234991393</v>
+        <v>5.482128234991392</v>
       </c>
     </row>
     <row r="5909" spans="1:2">
@@ -47615,7 +47615,7 @@
         <v>5909</v>
       </c>
       <c r="B5909">
-        <v>6.13198395611906</v>
+        <v>6.131983956119059</v>
       </c>
     </row>
     <row r="5910" spans="1:2">
@@ -47815,7 +47815,7 @@
         <v>5934</v>
       </c>
       <c r="B5934">
-        <v>9.094316707804072</v>
+        <v>9.094316707804071</v>
       </c>
     </row>
     <row r="5935" spans="1:2">
@@ -47823,7 +47823,7 @@
         <v>5935</v>
       </c>
       <c r="B5935">
-        <v>0.2375074073705022</v>
+        <v>0.2375074073705021</v>
       </c>
     </row>
     <row r="5936" spans="1:2">
@@ -48007,7 +48007,7 @@
         <v>5958</v>
       </c>
       <c r="B5958">
-        <v>4.735969370559608</v>
+        <v>4.735969370559607</v>
       </c>
     </row>
     <row r="5959" spans="1:2">
@@ -48183,7 +48183,7 @@
         <v>5980</v>
       </c>
       <c r="B5980">
-        <v>0.873882153790786</v>
+        <v>0.8738821537907859</v>
       </c>
     </row>
     <row r="5981" spans="1:2">
@@ -48199,7 +48199,7 @@
         <v>5982</v>
       </c>
       <c r="B5982">
-        <v>1.560626726554757</v>
+        <v>1.560626726554756</v>
       </c>
     </row>
     <row r="5983" spans="1:2">
@@ -49151,7 +49151,7 @@
         <v>6101</v>
       </c>
       <c r="B6101">
-        <v>0.5792343929414427</v>
+        <v>0.5792343929414426</v>
       </c>
     </row>
     <row r="6102" spans="1:2">
@@ -49159,7 +49159,7 @@
         <v>6102</v>
       </c>
       <c r="B6102">
-        <v>0.7729455573654321</v>
+        <v>0.772945557365432</v>
       </c>
     </row>
     <row r="6103" spans="1:2">
@@ -49543,7 +49543,7 @@
         <v>6150</v>
       </c>
       <c r="B6150">
-        <v>0.8537598962762981</v>
+        <v>0.853759896276298</v>
       </c>
     </row>
     <row r="6151" spans="1:2">
@@ -50903,7 +50903,7 @@
         <v>6320</v>
       </c>
       <c r="B6320">
-        <v>0.1019224873994107</v>
+        <v>0.1019224873994106</v>
       </c>
     </row>
     <row r="6321" spans="1:2">
@@ -51031,7 +51031,7 @@
         <v>6336</v>
       </c>
       <c r="B6336">
-        <v>4.331472722999219</v>
+        <v>4.331472722999218</v>
       </c>
     </row>
     <row r="6337" spans="1:2">
@@ -51423,7 +51423,7 @@
         <v>6385</v>
       </c>
       <c r="B6385">
-        <v>0.8877707903129471</v>
+        <v>0.887770790312947</v>
       </c>
     </row>
     <row r="6386" spans="1:2">
@@ -51495,7 +51495,7 @@
         <v>6394</v>
       </c>
       <c r="B6394">
-        <v>0.1697490901609605</v>
+        <v>0.1697490901609604</v>
       </c>
     </row>
     <row r="6395" spans="1:2">
@@ -51663,7 +51663,7 @@
         <v>6415</v>
       </c>
       <c r="B6415">
-        <v>0.3456978050737631</v>
+        <v>0.345697805073763</v>
       </c>
     </row>
     <row r="6416" spans="1:2">
@@ -51671,7 +51671,7 @@
         <v>6416</v>
       </c>
       <c r="B6416">
-        <v>0.5890464113158246</v>
+        <v>0.5890464113158245</v>
       </c>
     </row>
     <row r="6417" spans="1:2">
@@ -52055,7 +52055,7 @@
         <v>6464</v>
       </c>
       <c r="B6464">
-        <v>0.2998292568128759</v>
+        <v>0.2998292568128758</v>
       </c>
     </row>
     <row r="6465" spans="1:2">
@@ -52407,7 +52407,7 @@
         <v>6508</v>
       </c>
       <c r="B6508">
-        <v>2.172564916700419</v>
+        <v>2.172564916700418</v>
       </c>
     </row>
     <row r="6509" spans="1:2">
@@ -52607,7 +52607,7 @@
         <v>6533</v>
       </c>
       <c r="B6533">
-        <v>0.6772901010567557</v>
+        <v>0.6772901010567556</v>
       </c>
     </row>
     <row r="6534" spans="1:2">
@@ -52799,7 +52799,7 @@
         <v>6557</v>
       </c>
       <c r="B6557">
-        <v>8.040667709608805</v>
+        <v>8.040667709608803</v>
       </c>
     </row>
     <row r="6558" spans="1:2">
@@ -53367,7 +53367,7 @@
         <v>6628</v>
       </c>
       <c r="B6628">
-        <v>0.8796996139082137</v>
+        <v>0.8796996139082136</v>
       </c>
     </row>
     <row r="6629" spans="1:2">
@@ -53911,7 +53911,7 @@
         <v>6696</v>
       </c>
       <c r="B6696">
-        <v>8.583405966105749</v>
+        <v>8.583405966105747</v>
       </c>
     </row>
     <row r="6697" spans="1:2">
@@ -53959,7 +53959,7 @@
         <v>6702</v>
       </c>
       <c r="B6702">
-        <v>24.67883810228297</v>
+        <v>24.67883810228296</v>
       </c>
     </row>
     <row r="6703" spans="1:2">
@@ -53983,7 +53983,7 @@
         <v>6705</v>
       </c>
       <c r="B6705">
-        <v>0.7701525903669895</v>
+        <v>0.7701525903669894</v>
       </c>
     </row>
     <row r="6706" spans="1:2">
@@ -54079,7 +54079,7 @@
         <v>6717</v>
       </c>
       <c r="B6717">
-        <v>7.495731420321898</v>
+        <v>7.495731420321897</v>
       </c>
     </row>
     <row r="6718" spans="1:2">
@@ -54263,7 +54263,7 @@
         <v>6740</v>
       </c>
       <c r="B6740">
-        <v>9.173094202996245</v>
+        <v>9.173094202996239</v>
       </c>
     </row>
     <row r="6741" spans="1:2">
@@ -54311,7 +54311,7 @@
         <v>6746</v>
       </c>
       <c r="B6746">
-        <v>34.366682277584</v>
+        <v>34.36668227758399</v>
       </c>
     </row>
     <row r="6747" spans="1:2">
@@ -54463,7 +54463,7 @@
         <v>6765</v>
       </c>
       <c r="B6765">
-        <v>3.660281430257006</v>
+        <v>3.660281430257005</v>
       </c>
     </row>
     <row r="6766" spans="1:2">
@@ -54471,7 +54471,7 @@
         <v>6766</v>
       </c>
       <c r="B6766">
-        <v>6.741571716534659</v>
+        <v>6.741571716534658</v>
       </c>
     </row>
     <row r="6767" spans="1:2">
@@ -54575,7 +54575,7 @@
         <v>6779</v>
       </c>
       <c r="B6779">
-        <v>0.2934871995362444</v>
+        <v>0.2934871995362443</v>
       </c>
     </row>
     <row r="6780" spans="1:2">
@@ -54735,7 +54735,7 @@
         <v>6799</v>
       </c>
       <c r="B6799">
-        <v>0.2080566986954236</v>
+        <v>0.2080566986954235</v>
       </c>
     </row>
     <row r="6800" spans="1:2">
@@ -54871,7 +54871,7 @@
         <v>6816</v>
       </c>
       <c r="B6816">
-        <v>0.2499321540545499</v>
+        <v>0.2499321540545498</v>
       </c>
     </row>
     <row r="6817" spans="1:2">
@@ -54887,7 +54887,7 @@
         <v>6818</v>
       </c>
       <c r="B6818">
-        <v>3.302324463636039</v>
+        <v>3.302324463636038</v>
       </c>
     </row>
     <row r="6819" spans="1:2">
@@ -54911,7 +54911,7 @@
         <v>6821</v>
       </c>
       <c r="B6821">
-        <v>6.034918828114423</v>
+        <v>6.034918828114422</v>
       </c>
     </row>
     <row r="6822" spans="1:2">
@@ -55271,7 +55271,7 @@
         <v>6866</v>
       </c>
       <c r="B6866">
-        <v>0.8416502009588113</v>
+        <v>0.8416502009588112</v>
       </c>
     </row>
     <row r="6867" spans="1:2">
@@ -55455,7 +55455,7 @@
         <v>6889</v>
       </c>
       <c r="B6889">
-        <v>0.1262078190180831</v>
+        <v>0.126207819018083</v>
       </c>
     </row>
     <row r="6890" spans="1:2">
@@ -55663,7 +55663,7 @@
         <v>6915</v>
       </c>
       <c r="B6915">
-        <v>9.942405679482274</v>
+        <v>9.942405679482272</v>
       </c>
     </row>
     <row r="6916" spans="1:2">
@@ -56007,7 +56007,7 @@
         <v>6958</v>
       </c>
       <c r="B6958">
-        <v>6.07125963690843</v>
+        <v>6.071259636908429</v>
       </c>
     </row>
     <row r="6959" spans="1:2">
@@ -56015,7 +56015,7 @@
         <v>6959</v>
       </c>
       <c r="B6959">
-        <v>10.26402183730924</v>
+        <v>10.26402183730923</v>
       </c>
     </row>
     <row r="6960" spans="1:2">
@@ -56079,7 +56079,7 @@
         <v>6967</v>
       </c>
       <c r="B6967">
-        <v>0.5756413420074546</v>
+        <v>0.5756413420074545</v>
       </c>
     </row>
     <row r="6968" spans="1:2">
@@ -56087,7 +56087,7 @@
         <v>6968</v>
       </c>
       <c r="B6968">
-        <v>1.103371430614553</v>
+        <v>1.103371430614552</v>
       </c>
     </row>
     <row r="6969" spans="1:2">
@@ -56455,7 +56455,7 @@
         <v>7014</v>
       </c>
       <c r="B7014">
-        <v>20.90798096913904</v>
+        <v>20.90798096913903</v>
       </c>
     </row>
     <row r="7015" spans="1:2">
@@ -56999,7 +56999,7 @@
         <v>7082</v>
       </c>
       <c r="B7082">
-        <v>0.2421959578470064</v>
+        <v>0.2421959578470063</v>
       </c>
     </row>
     <row r="7083" spans="1:2">
@@ -57623,7 +57623,7 @@
         <v>7160</v>
       </c>
       <c r="B7160">
-        <v>0.4669999079756939</v>
+        <v>0.4669999079756938</v>
       </c>
     </row>
     <row r="7161" spans="1:2">
@@ -57727,7 +57727,7 @@
         <v>7173</v>
       </c>
       <c r="B7173">
-        <v>4.645850026171244</v>
+        <v>4.645850026171243</v>
       </c>
     </row>
     <row r="7174" spans="1:2">
@@ -57735,7 +57735,7 @@
         <v>7174</v>
       </c>
       <c r="B7174">
-        <v>8.552076672072852</v>
+        <v>8.55207667207285</v>
       </c>
     </row>
     <row r="7175" spans="1:2">
@@ -57815,7 +57815,7 @@
         <v>7184</v>
       </c>
       <c r="B7184">
-        <v>1.589180637851532</v>
+        <v>1.589180637851531</v>
       </c>
     </row>
     <row r="7185" spans="1:2">
@@ -58039,7 +58039,7 @@
         <v>7212</v>
       </c>
       <c r="B7212">
-        <v>0.5506365209888686</v>
+        <v>0.5506365209888685</v>
       </c>
     </row>
     <row r="7213" spans="1:2">
@@ -58151,7 +58151,7 @@
         <v>7226</v>
       </c>
       <c r="B7226">
-        <v>37.8035263479656</v>
+        <v>37.80352634796559</v>
       </c>
     </row>
     <row r="7227" spans="1:2">
@@ -58175,7 +58175,7 @@
         <v>7229</v>
       </c>
       <c r="B7229">
-        <v>45.62998843541682</v>
+        <v>45.62998843541681</v>
       </c>
     </row>
     <row r="7230" spans="1:2">
@@ -58215,7 +58215,7 @@
         <v>7234</v>
       </c>
       <c r="B7234">
-        <v>2.361381794778764</v>
+        <v>2.361381794778763</v>
       </c>
     </row>
     <row r="7235" spans="1:2">
@@ -58287,7 +58287,7 @@
         <v>7243</v>
       </c>
       <c r="B7243">
-        <v>4.900587372975686</v>
+        <v>4.900587372975685</v>
       </c>
     </row>
     <row r="7244" spans="1:2">
@@ -58351,7 +58351,7 @@
         <v>7251</v>
       </c>
       <c r="B7251">
-        <v>24.59208907483921</v>
+        <v>24.5920890748392</v>
       </c>
     </row>
     <row r="7252" spans="1:2">
@@ -58551,7 +58551,7 @@
         <v>7276</v>
       </c>
       <c r="B7276">
-        <v>25.41462225194614</v>
+        <v>25.41462225194613</v>
       </c>
     </row>
     <row r="7277" spans="1:2">
@@ -58879,7 +58879,7 @@
         <v>7317</v>
       </c>
       <c r="B7317">
-        <v>5.418355976978685</v>
+        <v>5.418355976978684</v>
       </c>
     </row>
     <row r="7318" spans="1:2">
@@ -58887,7 +58887,7 @@
         <v>7318</v>
       </c>
       <c r="B7318">
-        <v>8.902472405896356</v>
+        <v>8.902472405896354</v>
       </c>
     </row>
     <row r="7319" spans="1:2">
@@ -58991,7 +58991,7 @@
         <v>7331</v>
       </c>
       <c r="B7331">
-        <v>0.6176266990060789</v>
+        <v>0.6176266990060788</v>
       </c>
     </row>
     <row r="7332" spans="1:2">
@@ -59055,7 +59055,7 @@
         <v>7339</v>
       </c>
       <c r="B7339">
-        <v>0.8504687085121312</v>
+        <v>0.8504687085121311</v>
       </c>
     </row>
     <row r="7340" spans="1:2">
@@ -59079,7 +59079,7 @@
         <v>7342</v>
       </c>
       <c r="B7342">
-        <v>6.80009800295533</v>
+        <v>6.800098002955329</v>
       </c>
     </row>
     <row r="7343" spans="1:2">
@@ -59095,7 +59095,7 @@
         <v>7344</v>
       </c>
       <c r="B7344">
-        <v>15.41817427293472</v>
+        <v>15.41817427293471</v>
       </c>
     </row>
     <row r="7345" spans="1:2">
@@ -59183,7 +59183,7 @@
         <v>7355</v>
       </c>
       <c r="B7355">
-        <v>0.5903388545963211</v>
+        <v>0.590338854596321</v>
       </c>
     </row>
     <row r="7356" spans="1:2">
@@ -59255,7 +59255,7 @@
         <v>7364</v>
       </c>
       <c r="B7364">
-        <v>0.3183982378224588</v>
+        <v>0.3183982378224587</v>
       </c>
     </row>
     <row r="7365" spans="1:2">
@@ -59759,7 +59759,7 @@
         <v>7427</v>
       </c>
       <c r="B7427">
-        <v>0.8952147946949454</v>
+        <v>0.8952147946949452</v>
       </c>
     </row>
     <row r="7428" spans="1:2">
@@ -59887,7 +59887,7 @@
         <v>7443</v>
       </c>
       <c r="B7443">
-        <v>40.04024451502898</v>
+        <v>40.04024451502897</v>
       </c>
     </row>
     <row r="7444" spans="1:2">
@@ -60023,7 +60023,7 @@
         <v>7460</v>
       </c>
       <c r="B7460">
-        <v>7.115002833996945</v>
+        <v>7.115002833996944</v>
       </c>
     </row>
     <row r="7461" spans="1:2">
@@ -60119,7 +60119,7 @@
         <v>7472</v>
       </c>
       <c r="B7472">
-        <v>0.6597791064967403</v>
+        <v>0.6597791064967402</v>
       </c>
     </row>
     <row r="7473" spans="1:2">
@@ -60231,7 +60231,7 @@
         <v>7486</v>
       </c>
       <c r="B7486">
-        <v>2.087316412974607</v>
+        <v>2.087316412974606</v>
       </c>
     </row>
     <row r="7487" spans="1:2">
@@ -60255,7 +60255,7 @@
         <v>7489</v>
       </c>
       <c r="B7489">
-        <v>9.75721409015217</v>
+        <v>9.757214090152168</v>
       </c>
     </row>
     <row r="7490" spans="1:2">
@@ -60327,7 +60327,7 @@
         <v>7498</v>
       </c>
       <c r="B7498">
-        <v>0.7056505854680141</v>
+        <v>0.705650585468014</v>
       </c>
     </row>
     <row r="7499" spans="1:2">
@@ -60807,7 +60807,7 @@
         <v>7558</v>
       </c>
       <c r="B7558">
-        <v>9.974936564773683</v>
+        <v>9.974936564773682</v>
       </c>
     </row>
     <row r="7559" spans="1:2">
@@ -60863,7 +60863,7 @@
         <v>7565</v>
       </c>
       <c r="B7565">
-        <v>31.97903252561002</v>
+        <v>31.97903252561001</v>
       </c>
     </row>
     <row r="7566" spans="1:2">
@@ -60887,7 +60887,7 @@
         <v>7568</v>
       </c>
       <c r="B7568">
-        <v>0.5642291557619818</v>
+        <v>0.5642291557619817</v>
       </c>
     </row>
     <row r="7569" spans="1:2">
@@ -61087,7 +61087,7 @@
         <v>7593</v>
       </c>
       <c r="B7593">
-        <v>1.90450749118882</v>
+        <v>1.904507491188819</v>
       </c>
     </row>
     <row r="7594" spans="1:2">
@@ -61279,7 +61279,7 @@
         <v>7617</v>
       </c>
       <c r="B7617">
-        <v>1.335237513561863</v>
+        <v>1.335237513561862</v>
       </c>
     </row>
     <row r="7618" spans="1:2">
@@ -61295,7 +61295,7 @@
         <v>7619</v>
       </c>
       <c r="B7619">
-        <v>3.856873482991037</v>
+        <v>3.856873482991036</v>
       </c>
     </row>
     <row r="7620" spans="1:2">
@@ -61383,7 +61383,7 @@
         <v>7630</v>
       </c>
       <c r="B7630">
-        <v>27.07727286847969</v>
+        <v>27.07727286847968</v>
       </c>
     </row>
     <row r="7631" spans="1:2">
@@ -61543,7 +61543,7 @@
         <v>7650</v>
       </c>
       <c r="B7650">
-        <v>7.16810730620238</v>
+        <v>7.168107306202379</v>
       </c>
     </row>
     <row r="7651" spans="1:2">
@@ -61615,7 +61615,7 @@
         <v>7659</v>
       </c>
       <c r="B7659">
-        <v>54.47252781390693</v>
+        <v>54.47252781390692</v>
       </c>
     </row>
     <row r="7660" spans="1:2">
@@ -61631,7 +61631,7 @@
         <v>7661</v>
       </c>
       <c r="B7661">
-        <v>57.29538805829301</v>
+        <v>57.295388058293</v>
       </c>
     </row>
     <row r="7662" spans="1:2">
@@ -61679,7 +61679,7 @@
         <v>7667</v>
       </c>
       <c r="B7667">
-        <v>4.250585116328688</v>
+        <v>4.250585116328687</v>
       </c>
     </row>
     <row r="7668" spans="1:2">
@@ -61775,7 +61775,7 @@
         <v>7679</v>
       </c>
       <c r="B7679">
-        <v>21.66469039096263</v>
+        <v>21.66469039096262</v>
       </c>
     </row>
     <row r="7680" spans="1:2">
@@ -61783,7 +61783,7 @@
         <v>7680</v>
       </c>
       <c r="B7680">
-        <v>26.71908144502779</v>
+        <v>26.71908144502778</v>
       </c>
     </row>
     <row r="7681" spans="1:2">
@@ -61871,7 +61871,7 @@
         <v>7691</v>
       </c>
       <c r="B7691">
-        <v>0.8214781213677509</v>
+        <v>0.8214781213677508</v>
       </c>
     </row>
     <row r="7692" spans="1:2">
@@ -61967,7 +61967,7 @@
         <v>7703</v>
       </c>
       <c r="B7703">
-        <v>29.21311598403584</v>
+        <v>29.21311598403583</v>
       </c>
     </row>
     <row r="7704" spans="1:2">
@@ -61975,7 +61975,7 @@
         <v>7704</v>
       </c>
       <c r="B7704">
-        <v>35.6479888586114</v>
+        <v>35.64798885861139</v>
       </c>
     </row>
     <row r="7705" spans="1:2">
@@ -62007,7 +62007,7 @@
         <v>7708</v>
       </c>
       <c r="B7708">
-        <v>49.88420763262491</v>
+        <v>49.8842076326249</v>
       </c>
     </row>
     <row r="7709" spans="1:2">
@@ -62071,7 +62071,7 @@
         <v>7716</v>
       </c>
       <c r="B7716">
-        <v>1.837467491095037</v>
+        <v>1.837467491095036</v>
       </c>
     </row>
     <row r="7717" spans="1:2">
@@ -62079,7 +62079,7 @@
         <v>7717</v>
       </c>
       <c r="B7717">
-        <v>0.8909300961097165</v>
+        <v>0.8909300961097164</v>
       </c>
     </row>
     <row r="7718" spans="1:2">
@@ -62143,7 +62143,7 @@
         <v>7725</v>
       </c>
       <c r="B7725">
-        <v>31.3392584482123</v>
+        <v>31.33925844821229</v>
       </c>
     </row>
     <row r="7726" spans="1:2">
@@ -62183,7 +62183,7 @@
         <v>7730</v>
       </c>
       <c r="B7730">
-        <v>45.43626847886167</v>
+        <v>45.43626847886166</v>
       </c>
     </row>
     <row r="7731" spans="1:2">
@@ -62199,7 +62199,7 @@
         <v>7732</v>
       </c>
       <c r="B7732">
-        <v>49.43610201451171</v>
+        <v>49.4361020145117</v>
       </c>
     </row>
     <row r="7733" spans="1:2">
@@ -62311,7 +62311,7 @@
         <v>7746</v>
       </c>
       <c r="B7746">
-        <v>34.2544360697767</v>
+        <v>34.25443606977669</v>
       </c>
     </row>
     <row r="7747" spans="1:2">
@@ -62319,7 +62319,7 @@
         <v>7747</v>
       </c>
       <c r="B7747">
-        <v>77.55568203199047</v>
+        <v>77.55568203199046</v>
       </c>
     </row>
     <row r="7748" spans="1:2">
@@ -62383,7 +62383,7 @@
         <v>7755</v>
       </c>
       <c r="B7755">
-        <v>67.95379559232882</v>
+        <v>67.9537955923288</v>
       </c>
     </row>
     <row r="7756" spans="1:2">
@@ -62399,7 +62399,7 @@
         <v>7757</v>
       </c>
       <c r="B7757">
-        <v>68.08626370180374</v>
+        <v>68.08626370180373</v>
       </c>
     </row>
     <row r="7758" spans="1:2">
@@ -62415,7 +62415,7 @@
         <v>7759</v>
       </c>
       <c r="B7759">
-        <v>66.66486916429622</v>
+        <v>66.66486916429621</v>
       </c>
     </row>
     <row r="7760" spans="1:2">
@@ -62423,7 +62423,7 @@
         <v>7760</v>
       </c>
       <c r="B7760">
-        <v>20.76789301265892</v>
+        <v>20.76789301265891</v>
       </c>
     </row>
     <row r="7761" spans="1:2">
@@ -62447,7 +62447,7 @@
         <v>7763</v>
       </c>
       <c r="B7763">
-        <v>7.050292748660519</v>
+        <v>7.050292748660518</v>
       </c>
     </row>
     <row r="7764" spans="1:2">
@@ -62479,7 +62479,7 @@
         <v>7767</v>
       </c>
       <c r="B7767">
-        <v>5.011749217939934</v>
+        <v>5.011749217939933</v>
       </c>
     </row>
     <row r="7768" spans="1:2">
@@ -62599,7 +62599,7 @@
         <v>7782</v>
       </c>
       <c r="B7782">
-        <v>65.60981342511538</v>
+        <v>65.60981342511536</v>
       </c>
     </row>
     <row r="7783" spans="1:2">
@@ -62623,7 +62623,7 @@
         <v>7785</v>
       </c>
       <c r="B7785">
-        <v>20.32198542733568</v>
+        <v>20.32198542733567</v>
       </c>
     </row>
     <row r="7786" spans="1:2">
@@ -62871,7 +62871,7 @@
         <v>7816</v>
       </c>
       <c r="B7816">
-        <v>10.44065575231043</v>
+        <v>10.44065575231042</v>
       </c>
     </row>
     <row r="7817" spans="1:2">
@@ -62903,7 +62903,7 @@
         <v>7820</v>
       </c>
       <c r="B7820">
-        <v>56.35580230834474</v>
+        <v>56.35580230834473</v>
       </c>
     </row>
     <row r="7821" spans="1:2">
@@ -62911,7 +62911,7 @@
         <v>7821</v>
       </c>
       <c r="B7821">
-        <v>49.9176177310323</v>
+        <v>49.91761773103229</v>
       </c>
     </row>
     <row r="7822" spans="1:2">
@@ -63047,7 +63047,7 @@
         <v>7838</v>
       </c>
       <c r="B7838">
-        <v>6.767361967936857</v>
+        <v>6.767361967936856</v>
       </c>
     </row>
     <row r="7839" spans="1:2">
@@ -63111,7 +63111,7 @@
         <v>7846</v>
       </c>
       <c r="B7846">
-        <v>55.87428659182415</v>
+        <v>55.87428659182414</v>
       </c>
     </row>
     <row r="7847" spans="1:2">
@@ -63223,7 +63223,7 @@
         <v>7860</v>
       </c>
       <c r="B7860">
-        <v>8.569397170457737</v>
+        <v>8.569397170457735</v>
       </c>
     </row>
     <row r="7861" spans="1:2">
@@ -63231,7 +63231,7 @@
         <v>7861</v>
       </c>
       <c r="B7861">
-        <v>4.888893838533098</v>
+        <v>4.888893838533097</v>
       </c>
     </row>
     <row r="7862" spans="1:2">
@@ -63327,7 +63327,7 @@
         <v>7873</v>
       </c>
       <c r="B7873">
-        <v>57.3235228780045</v>
+        <v>57.32352287800449</v>
       </c>
     </row>
     <row r="7874" spans="1:2">
@@ -63375,7 +63375,7 @@
         <v>7879</v>
       </c>
       <c r="B7879">
-        <v>57.19896768657343</v>
+        <v>57.19896768657342</v>
       </c>
     </row>
     <row r="7880" spans="1:2">
@@ -63479,7 +63479,7 @@
         <v>7892</v>
       </c>
       <c r="B7892">
-        <v>61.98833460037713</v>
+        <v>61.98833460037712</v>
       </c>
     </row>
     <row r="7893" spans="1:2">
@@ -63599,7 +63599,7 @@
         <v>7907</v>
       </c>
       <c r="B7907">
-        <v>4.599925794413012</v>
+        <v>4.599925794413011</v>
       </c>
     </row>
     <row r="7908" spans="1:2">
@@ -63615,7 +63615,7 @@
         <v>7909</v>
       </c>
       <c r="B7909">
-        <v>4.096136678954159</v>
+        <v>4.096136678954158</v>
       </c>
     </row>
     <row r="7910" spans="1:2">
@@ -63727,7 +63727,7 @@
         <v>7923</v>
       </c>
       <c r="B7923">
-        <v>33.12347493158257</v>
+        <v>33.12347493158256</v>
       </c>
     </row>
     <row r="7924" spans="1:2">
@@ -63967,7 +63967,7 @@
         <v>7953</v>
       </c>
       <c r="B7953">
-        <v>5.112888033381965</v>
+        <v>5.112888033381964</v>
       </c>
     </row>
     <row r="7954" spans="1:2">
@@ -63991,7 +63991,7 @@
         <v>7956</v>
       </c>
       <c r="B7956">
-        <v>0.8259298704450168</v>
+        <v>0.8259298704450166</v>
       </c>
     </row>
     <row r="7957" spans="1:2">
@@ -64231,7 +64231,7 @@
         <v>7986</v>
       </c>
       <c r="B7986">
-        <v>6.84739966859527</v>
+        <v>6.847399668595269</v>
       </c>
     </row>
     <row r="7987" spans="1:2">
@@ -64263,7 +64263,7 @@
         <v>7990</v>
       </c>
       <c r="B7990">
-        <v>26.47131918894349</v>
+        <v>26.47131918894348</v>
       </c>
     </row>
     <row r="7991" spans="1:2">
@@ -64295,7 +64295,7 @@
         <v>7994</v>
       </c>
       <c r="B7994">
-        <v>44.24669313293527</v>
+        <v>44.24669313293526</v>
       </c>
     </row>
     <row r="7995" spans="1:2">
@@ -64311,7 +64311,7 @@
         <v>7996</v>
       </c>
       <c r="B7996">
-        <v>45.02860666408374</v>
+        <v>45.02860666408373</v>
       </c>
     </row>
     <row r="7997" spans="1:2">
@@ -64359,7 +64359,7 @@
         <v>8002</v>
       </c>
       <c r="B8002">
-        <v>7.675970109098626</v>
+        <v>7.675970109098625</v>
       </c>
     </row>
     <row r="8003" spans="1:2">
@@ -64447,7 +64447,7 @@
         <v>8013</v>
       </c>
       <c r="B8013">
-        <v>37.56643187768857</v>
+        <v>37.56643187768856</v>
       </c>
     </row>
     <row r="8014" spans="1:2">
@@ -64487,7 +64487,7 @@
         <v>8018</v>
       </c>
       <c r="B8018">
-        <v>30.52657245800439</v>
+        <v>30.52657245800438</v>
       </c>
     </row>
     <row r="8019" spans="1:2">
@@ -64543,7 +64543,7 @@
         <v>8025</v>
       </c>
       <c r="B8025">
-        <v>0.8909037197162369</v>
+        <v>0.8909037197162368</v>
       </c>
     </row>
     <row r="8026" spans="1:2">
@@ -64551,7 +64551,7 @@
         <v>8026</v>
       </c>
       <c r="B8026">
-        <v>0.3154264974904327</v>
+        <v>0.3154264974904326</v>
       </c>
     </row>
     <row r="8027" spans="1:2">
@@ -64663,7 +64663,7 @@
         <v>8040</v>
       </c>
       <c r="B8040">
-        <v>22.23204661470713</v>
+        <v>22.23204661470712</v>
       </c>
     </row>
     <row r="8041" spans="1:2">
@@ -64863,7 +64863,7 @@
         <v>8065</v>
       </c>
       <c r="B8065">
-        <v>22.15362080476136</v>
+        <v>22.15362080476135</v>
       </c>
     </row>
     <row r="8066" spans="1:2">
@@ -65127,7 +65127,7 @@
         <v>8098</v>
       </c>
       <c r="B8098">
-        <v>0.223602358870176</v>
+        <v>0.2236023588701759</v>
       </c>
     </row>
     <row r="8099" spans="1:2">
@@ -65271,7 +65271,7 @@
         <v>8116</v>
       </c>
       <c r="B8116">
-        <v>5.727077009104545</v>
+        <v>5.727077009104544</v>
       </c>
     </row>
     <row r="8117" spans="1:2">
@@ -65327,7 +65327,7 @@
         <v>8123</v>
       </c>
       <c r="B8123">
-        <v>0.2447714661347623</v>
+        <v>0.2447714661347622</v>
       </c>
     </row>
     <row r="8124" spans="1:2">
@@ -65439,7 +65439,7 @@
         <v>8137</v>
       </c>
       <c r="B8137">
-        <v>1.400765267096153</v>
+        <v>1.400765267096152</v>
       </c>
     </row>
     <row r="8138" spans="1:2">
@@ -65479,7 +65479,7 @@
         <v>8142</v>
       </c>
       <c r="B8142">
-        <v>8.334911032424795</v>
+        <v>8.334911032424793</v>
       </c>
     </row>
     <row r="8143" spans="1:2">
@@ -65879,7 +65879,7 @@
         <v>8192</v>
       </c>
       <c r="B8192">
-        <v>0.1811346069419151</v>
+        <v>0.181134606941915</v>
       </c>
     </row>
     <row r="8193" spans="1:2">
@@ -65895,7 +65895,7 @@
         <v>8194</v>
       </c>
       <c r="B8194">
-        <v>0.4701826594555561</v>
+        <v>0.470182659455556</v>
       </c>
     </row>
     <row r="8195" spans="1:2">
@@ -65903,7 +65903,7 @@
         <v>8195</v>
       </c>
       <c r="B8195">
-        <v>0.5882346045387327</v>
+        <v>0.5882346045387326</v>
       </c>
     </row>
     <row r="8196" spans="1:2">
@@ -65919,7 +65919,7 @@
         <v>8197</v>
       </c>
       <c r="B8197">
-        <v>0.8151067569872533</v>
+        <v>0.8151067569872532</v>
       </c>
     </row>
     <row r="8198" spans="1:2">
@@ -65959,7 +65959,7 @@
         <v>8202</v>
       </c>
       <c r="B8202">
-        <v>3.680503331924639</v>
+        <v>3.680503331924638</v>
       </c>
     </row>
     <row r="8203" spans="1:2">
@@ -66063,7 +66063,7 @@
         <v>8215</v>
       </c>
       <c r="B8215">
-        <v>31.28855715852389</v>
+        <v>31.28855715852388</v>
       </c>
     </row>
     <row r="8216" spans="1:2">
@@ -66159,7 +66159,7 @@
         <v>8227</v>
       </c>
       <c r="B8227">
-        <v>26.61175883067001</v>
+        <v>26.61175883067</v>
       </c>
     </row>
     <row r="8228" spans="1:2">
@@ -66215,7 +66215,7 @@
         <v>8234</v>
       </c>
       <c r="B8234">
-        <v>41.02379092077646</v>
+        <v>41.02379092077645</v>
       </c>
     </row>
     <row r="8235" spans="1:2">
@@ -66263,7 +66263,7 @@
         <v>8240</v>
       </c>
       <c r="B8240">
-        <v>8.050954503065817</v>
+        <v>8.050954503065816</v>
       </c>
     </row>
     <row r="8241" spans="1:2">
@@ -66271,7 +66271,7 @@
         <v>8241</v>
       </c>
       <c r="B8241">
-        <v>7.664364495967637</v>
+        <v>7.664364495967636</v>
       </c>
     </row>
     <row r="8242" spans="1:2">
@@ -66295,7 +66295,7 @@
         <v>8244</v>
       </c>
       <c r="B8244">
-        <v>1.961483431814972</v>
+        <v>1.961483431814971</v>
       </c>
     </row>
     <row r="8245" spans="1:2">
@@ -66359,7 +66359,7 @@
         <v>8252</v>
       </c>
       <c r="B8252">
-        <v>19.71104954014224</v>
+        <v>19.71104954014223</v>
       </c>
     </row>
     <row r="8253" spans="1:2">
@@ -66463,7 +66463,7 @@
         <v>8265</v>
       </c>
       <c r="B8265">
-        <v>3.189843798997815</v>
+        <v>3.189843798997814</v>
       </c>
     </row>
     <row r="8266" spans="1:2">
@@ -66535,7 +66535,7 @@
         <v>8274</v>
       </c>
       <c r="B8274">
-        <v>3.997195896302089</v>
+        <v>3.997195896302088</v>
       </c>
     </row>
     <row r="8275" spans="1:2">
@@ -66647,7 +66647,7 @@
         <v>8288</v>
       </c>
       <c r="B8288">
-        <v>10.30555000348755</v>
+        <v>10.30555000348754</v>
       </c>
     </row>
     <row r="8289" spans="1:2">
@@ -66687,7 +66687,7 @@
         <v>8293</v>
       </c>
       <c r="B8293">
-        <v>7.46167656562945</v>
+        <v>7.461676565629449</v>
       </c>
     </row>
     <row r="8294" spans="1:2">
@@ -66695,7 +66695,7 @@
         <v>8294</v>
       </c>
       <c r="B8294">
-        <v>6.11970427959915</v>
+        <v>6.119704279599149</v>
       </c>
     </row>
     <row r="8295" spans="1:2">
@@ -66703,7 +66703,7 @@
         <v>8295</v>
       </c>
       <c r="B8295">
-        <v>9.308258566026854</v>
+        <v>9.308258566026852</v>
       </c>
     </row>
     <row r="8296" spans="1:2">
@@ -66767,7 +66767,7 @@
         <v>8303</v>
       </c>
       <c r="B8303">
-        <v>33.64807209078638</v>
+        <v>33.64807209078637</v>
       </c>
     </row>
     <row r="8304" spans="1:2">
@@ -66871,7 +66871,7 @@
         <v>8316</v>
       </c>
       <c r="B8316">
-        <v>19.04829869331347</v>
+        <v>19.04829869331346</v>
       </c>
     </row>
     <row r="8317" spans="1:2">
@@ -66911,7 +66911,7 @@
         <v>8321</v>
       </c>
       <c r="B8321">
-        <v>25.20281981230559</v>
+        <v>25.20281981230558</v>
       </c>
     </row>
     <row r="8322" spans="1:2">
@@ -66927,7 +66927,7 @@
         <v>8323</v>
       </c>
       <c r="B8323">
-        <v>63.88919335713462</v>
+        <v>63.88919335713461</v>
       </c>
     </row>
     <row r="8324" spans="1:2">
@@ -66935,7 +66935,7 @@
         <v>8324</v>
       </c>
       <c r="B8324">
-        <v>50.57468299971104</v>
+        <v>50.57468299971103</v>
       </c>
     </row>
     <row r="8325" spans="1:2">
@@ -67007,7 +67007,7 @@
         <v>8333</v>
       </c>
       <c r="B8333">
-        <v>53.6038652553147</v>
+        <v>53.60386525531469</v>
       </c>
     </row>
     <row r="8334" spans="1:2">
@@ -67055,7 +67055,7 @@
         <v>8339</v>
       </c>
       <c r="B8339">
-        <v>5.931083759116708</v>
+        <v>5.931083759116707</v>
       </c>
     </row>
     <row r="8340" spans="1:2">
@@ -67239,7 +67239,7 @@
         <v>8362</v>
       </c>
       <c r="B8362">
-        <v>10.92082334205318</v>
+        <v>10.92082334205317</v>
       </c>
     </row>
     <row r="8363" spans="1:2">
@@ -67271,7 +67271,7 @@
         <v>8366</v>
       </c>
       <c r="B8366">
-        <v>0.7121977924717084</v>
+        <v>0.7121977924717083</v>
       </c>
     </row>
     <row r="8367" spans="1:2">
@@ -67367,7 +67367,7 @@
         <v>8378</v>
       </c>
       <c r="B8378">
-        <v>42.13453015730296</v>
+        <v>42.13453015730295</v>
       </c>
     </row>
     <row r="8379" spans="1:2">
@@ -67383,7 +67383,7 @@
         <v>8380</v>
       </c>
       <c r="B8380">
-        <v>47.30107949786381</v>
+        <v>47.3010794978638</v>
       </c>
     </row>
     <row r="8381" spans="1:2">
@@ -67463,7 +67463,7 @@
         <v>8390</v>
       </c>
       <c r="B8390">
-        <v>0.9215442968082806</v>
+        <v>0.9215442968082804</v>
       </c>
     </row>
     <row r="8391" spans="1:2">
@@ -67639,7 +67639,7 @@
         <v>8412</v>
       </c>
       <c r="B8412">
-        <v>3.905464661201088</v>
+        <v>3.905464661201087</v>
       </c>
     </row>
     <row r="8413" spans="1:2">
@@ -67839,7 +67839,7 @@
         <v>8437</v>
       </c>
       <c r="B8437">
-        <v>2.099250265668897</v>
+        <v>2.099250265668896</v>
       </c>
     </row>
     <row r="8438" spans="1:2">
@@ -67991,7 +67991,7 @@
         <v>8456</v>
       </c>
       <c r="B8456">
-        <v>8.394873366934906</v>
+        <v>8.394873366934904</v>
       </c>
     </row>
     <row r="8457" spans="1:2">
@@ -67999,7 +67999,7 @@
         <v>8457</v>
       </c>
       <c r="B8457">
-        <v>9.585943375158481</v>
+        <v>9.585943375158475</v>
       </c>
     </row>
     <row r="8458" spans="1:2">
@@ -68111,7 +68111,7 @@
         <v>8471</v>
       </c>
       <c r="B8471">
-        <v>18.01789022848405</v>
+        <v>18.01789022848404</v>
       </c>
     </row>
     <row r="8472" spans="1:2">
@@ -68127,7 +68127,7 @@
         <v>8473</v>
       </c>
       <c r="B8473">
-        <v>24.51512862008674</v>
+        <v>24.51512862008673</v>
       </c>
     </row>
     <row r="8474" spans="1:2">
@@ -68215,7 +68215,7 @@
         <v>8484</v>
       </c>
       <c r="B8484">
-        <v>0.966463294903905</v>
+        <v>0.9664632949039048</v>
       </c>
     </row>
     <row r="8485" spans="1:2">
@@ -68335,7 +68335,7 @@
         <v>8499</v>
       </c>
       <c r="B8499">
-        <v>25.32664232614001</v>
+        <v>25.32664232614</v>
       </c>
     </row>
     <row r="8500" spans="1:2">
@@ -68343,7 +68343,7 @@
         <v>8500</v>
       </c>
       <c r="B8500">
-        <v>27.96721238447873</v>
+        <v>27.96721238447872</v>
       </c>
     </row>
     <row r="8501" spans="1:2">
@@ -68391,7 +68391,7 @@
         <v>8506</v>
       </c>
       <c r="B8506">
-        <v>3.328583628700096</v>
+        <v>3.328583628700095</v>
       </c>
     </row>
     <row r="8507" spans="1:2">
@@ -68567,7 +68567,7 @@
         <v>8528</v>
       </c>
       <c r="B8528">
-        <v>0.3124723414207264</v>
+        <v>0.3124723414207263</v>
       </c>
     </row>
     <row r="8529" spans="1:2">
@@ -68583,7 +68583,7 @@
         <v>8530</v>
       </c>
       <c r="B8530">
-        <v>0.7883200640536063</v>
+        <v>0.7883200640536062</v>
       </c>
     </row>
     <row r="8531" spans="1:2">
@@ -68631,7 +68631,7 @@
         <v>8536</v>
       </c>
       <c r="B8536">
-        <v>7.679105969212302</v>
+        <v>7.679105969212301</v>
       </c>
     </row>
     <row r="8537" spans="1:2">
@@ -68655,7 +68655,7 @@
         <v>8539</v>
       </c>
       <c r="B8539">
-        <v>67.52591187588325</v>
+        <v>67.52591187588324</v>
       </c>
     </row>
     <row r="8540" spans="1:2">
@@ -68679,7 +68679,7 @@
         <v>8542</v>
       </c>
       <c r="B8542">
-        <v>56.1339475320781</v>
+        <v>56.13394753207809</v>
       </c>
     </row>
     <row r="8543" spans="1:2">
@@ -68695,7 +68695,7 @@
         <v>8544</v>
       </c>
       <c r="B8544">
-        <v>68.22664472932253</v>
+        <v>68.22664472932252</v>
       </c>
     </row>
     <row r="8545" spans="1:2">
@@ -68735,7 +68735,7 @@
         <v>8549</v>
       </c>
       <c r="B8549">
-        <v>80.27713969699973</v>
+        <v>80.27713969699971</v>
       </c>
     </row>
     <row r="8550" spans="1:2">
@@ -68743,7 +68743,7 @@
         <v>8550</v>
       </c>
       <c r="B8550">
-        <v>81.51712326157588</v>
+        <v>81.51712326157586</v>
       </c>
     </row>
     <row r="8551" spans="1:2">
@@ -68847,7 +68847,7 @@
         <v>8563</v>
       </c>
       <c r="B8563">
-        <v>98.71453181022362</v>
+        <v>98.7145318102236</v>
       </c>
     </row>
     <row r="8564" spans="1:2">
@@ -68863,7 +68863,7 @@
         <v>8565</v>
       </c>
       <c r="B8565">
-        <v>76.50648771358286</v>
+        <v>76.50648771358284</v>
       </c>
     </row>
     <row r="8566" spans="1:2">
@@ -68895,7 +68895,7 @@
         <v>8569</v>
       </c>
       <c r="B8569">
-        <v>79.68572234098113</v>
+        <v>79.68572234098112</v>
       </c>
     </row>
     <row r="8570" spans="1:2">
@@ -68951,7 +68951,7 @@
         <v>8576</v>
       </c>
       <c r="B8576">
-        <v>32.20118037291532</v>
+        <v>32.20118037291531</v>
       </c>
     </row>
     <row r="8577" spans="1:2">
@@ -68991,7 +68991,7 @@
         <v>8581</v>
       </c>
       <c r="B8581">
-        <v>45.46147258818655</v>
+        <v>45.46147258818654</v>
       </c>
     </row>
     <row r="8582" spans="1:2">
@@ -68999,7 +68999,7 @@
         <v>8582</v>
       </c>
       <c r="B8582">
-        <v>37.81349076328008</v>
+        <v>37.81349076328007</v>
       </c>
     </row>
     <row r="8583" spans="1:2">
@@ -69071,7 +69071,7 @@
         <v>8591</v>
       </c>
       <c r="B8591">
-        <v>67.55639126390403</v>
+        <v>67.55639126390402</v>
       </c>
     </row>
     <row r="8592" spans="1:2">
@@ -69103,7 +69103,7 @@
         <v>8595</v>
       </c>
       <c r="B8595">
-        <v>76.3409025767392</v>
+        <v>76.34090257673918</v>
       </c>
     </row>
     <row r="8596" spans="1:2">
@@ -69255,7 +69255,7 @@
         <v>8614</v>
       </c>
       <c r="B8614">
-        <v>63.1447929189348</v>
+        <v>63.14479291893479</v>
       </c>
     </row>
     <row r="8615" spans="1:2">
@@ -69295,7 +69295,7 @@
         <v>8619</v>
       </c>
       <c r="B8619">
-        <v>78.5676563284881</v>
+        <v>78.56765632848808</v>
       </c>
     </row>
     <row r="8620" spans="1:2">
@@ -69303,7 +69303,7 @@
         <v>8620</v>
       </c>
       <c r="B8620">
-        <v>81.78997239856959</v>
+        <v>81.78997239856957</v>
       </c>
     </row>
     <row r="8621" spans="1:2">
@@ -69415,7 +69415,7 @@
         <v>8634</v>
       </c>
       <c r="B8634">
-        <v>46.73281475389946</v>
+        <v>46.73281475389945</v>
       </c>
     </row>
     <row r="8635" spans="1:2">
@@ -69463,7 +69463,7 @@
         <v>8640</v>
       </c>
       <c r="B8640">
-        <v>66.06817652958172</v>
+        <v>66.06817652958171</v>
       </c>
     </row>
     <row r="8641" spans="1:2">
@@ -69495,7 +69495,7 @@
         <v>8644</v>
       </c>
       <c r="B8644">
-        <v>82.59269397346301</v>
+        <v>82.592693973463</v>
       </c>
     </row>
     <row r="8645" spans="1:2">
@@ -69503,7 +69503,7 @@
         <v>8645</v>
       </c>
       <c r="B8645">
-        <v>82.36820155784842</v>
+        <v>82.36820155784841</v>
       </c>
     </row>
     <row r="8646" spans="1:2">
@@ -69543,7 +69543,7 @@
         <v>8650</v>
       </c>
       <c r="B8650">
-        <v>19.0063016134733</v>
+        <v>19.00630161347329</v>
       </c>
     </row>
     <row r="8651" spans="1:2">
@@ -69615,7 +69615,7 @@
         <v>8659</v>
       </c>
       <c r="B8659">
-        <v>60.24075199683953</v>
+        <v>60.24075199683952</v>
       </c>
     </row>
     <row r="8660" spans="1:2">
@@ -69655,7 +69655,7 @@
         <v>8664</v>
       </c>
       <c r="B8664">
-        <v>53.30610508003478</v>
+        <v>53.30610508003477</v>
       </c>
     </row>
     <row r="8665" spans="1:2">
@@ -69711,7 +69711,7 @@
         <v>8671</v>
       </c>
       <c r="B8671">
-        <v>55.20403312640565</v>
+        <v>55.20403312640564</v>
       </c>
     </row>
     <row r="8672" spans="1:2">
@@ -69815,7 +69815,7 @@
         <v>8684</v>
       </c>
       <c r="B8684">
-        <v>56.7707908990892</v>
+        <v>56.77079089908919</v>
       </c>
     </row>
     <row r="8685" spans="1:2">
@@ -69855,7 +69855,7 @@
         <v>8689</v>
       </c>
       <c r="B8689">
-        <v>53.53264899292</v>
+        <v>53.53264899291999</v>
       </c>
     </row>
     <row r="8690" spans="1:2">
@@ -70015,7 +70015,7 @@
         <v>8709</v>
       </c>
       <c r="B8709">
-        <v>52.97200409596084</v>
+        <v>52.97200409596083</v>
       </c>
     </row>
     <row r="8710" spans="1:2">
@@ -70167,7 +70167,7 @@
         <v>8728</v>
       </c>
       <c r="B8728">
-        <v>20.43068547557517</v>
+        <v>20.43068547557516</v>
       </c>
     </row>
     <row r="8729" spans="1:2">
@@ -70231,7 +70231,7 @@
         <v>8736</v>
       </c>
       <c r="B8736">
-        <v>71.77280429712481</v>
+        <v>71.77280429712479</v>
       </c>
     </row>
     <row r="8737" spans="1:2">
@@ -70239,7 +70239,7 @@
         <v>8737</v>
       </c>
       <c r="B8737">
-        <v>78.44515263432766</v>
+        <v>78.44515263432764</v>
       </c>
     </row>
     <row r="8738" spans="1:2">
@@ -70279,7 +70279,7 @@
         <v>8742</v>
       </c>
       <c r="B8742">
-        <v>80.65139141337026</v>
+        <v>80.65139141337025</v>
       </c>
     </row>
     <row r="8743" spans="1:2">
@@ -70295,7 +70295,7 @@
         <v>8744</v>
       </c>
       <c r="B8744">
-        <v>34.48654833239649</v>
+        <v>34.48654833239648</v>
       </c>
     </row>
     <row r="8745" spans="1:2">
@@ -70351,7 +70351,7 @@
         <v>8751</v>
       </c>
       <c r="B8751">
-        <v>47.51765899543455</v>
+        <v>47.51765899543454</v>
       </c>
     </row>
     <row r="8752" spans="1:2">
@@ -70375,7 +70375,7 @@
         <v>8754</v>
       </c>
       <c r="B8754">
-        <v>54.28906534370493</v>
+        <v>54.28906534370492</v>
       </c>
     </row>
     <row r="8755" spans="1:2">
@@ -70383,7 +70383,7 @@
         <v>8755</v>
       </c>
       <c r="B8755">
-        <v>102.698539509786</v>
+        <v>102.6985395097859</v>
       </c>
     </row>
     <row r="8756" spans="1:2">
@@ -70391,7 +70391,7 @@
         <v>8756</v>
       </c>
       <c r="B8756">
-        <v>91.10699378865242</v>
+        <v>91.1069937886524</v>
       </c>
     </row>
     <row r="8757" spans="1:2">
@@ -70407,7 +70407,7 @@
         <v>8758</v>
       </c>
       <c r="B8758">
-        <v>83.23188190878341</v>
+        <v>83.23188190878339</v>
       </c>
     </row>
     <row r="8759" spans="1:2">
